--- a/CSEC Prep.xlsx
+++ b/CSEC Prep.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
   <si>
     <t>Mathematics</t>
   </si>
@@ -491,6 +491,15 @@
     <t>reac, m-s</t>
   </si>
   <si>
+    <t>redo, meta</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a-b-s, wate, s-b</t>
+  </si>
+  <si>
     <t>drug, r-g-e</t>
   </si>
   <si>
@@ -512,9 +521,30 @@
     <t>envi, f-r, v-e-s</t>
   </si>
   <si>
+    <t>b-d</t>
+  </si>
+  <si>
+    <t>gene, nutr, dise</t>
+  </si>
+  <si>
+    <t>biod, r-g-e</t>
+  </si>
+  <si>
     <t>a-d</t>
   </si>
   <si>
+    <t>excr, home</t>
+  </si>
+  <si>
+    <t>dise, home</t>
+  </si>
+  <si>
+    <t>gene,</t>
+  </si>
+  <si>
+    <t>gene, v-e-s</t>
+  </si>
+  <si>
     <t>alge, meas</t>
   </si>
   <si>
@@ -555,16 +585,13 @@
   </si>
   <si>
     <t>inte, trig</t>
-  </si>
-  <si>
-    <t>b-d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -574,9 +601,6 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font>
       <color theme="1"/>
@@ -598,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -612,15 +636,12 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -908,17 +929,17 @@
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="2"/>
@@ -938,440 +959,440 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16">
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17">
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18">
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19">
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20">
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21">
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22">
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23">
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1417,603 +1438,1183 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="A2" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="5">
         <v>1.0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="A3" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
         <v>1.0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="A4" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5">
         <v>1.0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="A5" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="5">
         <v>1.0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="A6" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="A7" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="A9" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="5">
         <v>3.0</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="A10" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="5">
         <v>3.0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="A11" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="5">
         <v>4.0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="A12" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="5">
         <v>5.0</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="A13" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="5">
         <v>5.0</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="A14" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="5">
         <v>5.0</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="A15" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="5">
         <v>6.0</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="A16" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="5">
         <v>6.0</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="A17" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="5">
         <v>6.0</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="B18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="5">
         <v>1.0</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="5">
         <v>1.0</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="B20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="5">
         <v>1.0</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="B21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="5">
         <v>1.0</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="B22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="B23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="B24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B25" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="B25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="5">
         <v>3.0</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B26" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="B26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="5">
         <v>3.0</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="B27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="5">
         <v>4.0</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B28" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="B28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="5">
         <v>5.0</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="B29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="5">
         <v>5.0</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="B30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="5">
         <v>5.0</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="B31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="5">
         <v>6.0</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2055,483 +2656,903 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="A2" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="5">
         <v>1.0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="A3" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
         <v>1.0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="A4" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5">
         <v>1.0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="A5" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="A6" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="5">
         <v>3.0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="A7" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="5">
         <v>3.0</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="A8" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="5">
         <v>4.0</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="A9" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="5">
         <v>4.0</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>158</v>
+      <c r="F9" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="A10" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="5">
         <v>5.0</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>159</v>
+      <c r="E10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="A11" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="5">
         <v>5.0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="A12" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="5">
         <v>6.0</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>160</v>
+      <c r="E12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="A13" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="5">
         <v>6.0</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="5">
         <v>1.0</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>161</v>
+      <c r="E14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="5">
         <v>1.0</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>162</v>
+      <c r="F15" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="5">
         <v>1.0</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="B18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="5">
         <v>3.0</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="B20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="5">
         <v>4.0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="B21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="5">
         <v>4.0</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="B22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="5">
         <v>5.0</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="B23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="5">
         <v>5.0</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>163</v>
+      <c r="F23" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="B24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="5">
         <v>6.0</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B25" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="B25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="5">
         <v>6.0</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>164</v>
+      <c r="F25" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6">
+        <v>2014.0</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2573,982 +3594,982 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="5">
         <v>1.0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1.0</v>
       </c>
-      <c r="C3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1.0</v>
       </c>
-      <c r="C4" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1.0</v>
       </c>
-      <c r="C5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="5">
         <v>3.0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1.0</v>
       </c>
-      <c r="C6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="5">
         <v>4.0</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1.0</v>
       </c>
-      <c r="C7" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="5">
         <v>5.0</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1.0</v>
       </c>
-      <c r="C8" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="5">
         <v>5.0</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1.0</v>
       </c>
-      <c r="C9" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="5">
         <v>6.0</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1.0</v>
       </c>
-      <c r="C10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="5">
         <v>7.0</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>166</v>
+      <c r="E10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>1.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="5">
         <v>7.0</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1.0</v>
       </c>
-      <c r="C12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="5">
         <v>7.0</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>166</v>
+      <c r="F12" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>1.0</v>
       </c>
-      <c r="C13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="5">
         <v>8.0</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>167</v>
+      <c r="E13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1.0</v>
       </c>
-      <c r="C14" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="5">
         <v>8.0</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>1.0</v>
       </c>
-      <c r="C15" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="5">
         <v>8.0</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1.0</v>
       </c>
-      <c r="C16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="5">
         <v>9.0</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>2021.0</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1.0</v>
       </c>
-      <c r="C17" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="5">
         <v>10.0</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="B18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="5">
         <v>1.0</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="5">
         <v>1.0</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>168</v>
+      <c r="F19" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="B20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="B21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>169</v>
+      <c r="F21" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="B22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="B23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="5">
         <v>3.0</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="B24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="5">
         <v>3.0</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>170</v>
+      <c r="F24" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B25" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="B25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="5">
         <v>4.0</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B26" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="B26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="5">
         <v>4.0</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="B27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="5">
         <v>5.0</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B28" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="B28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="5">
         <v>6.0</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="B29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="5">
         <v>6.0</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>166</v>
+      <c r="F29" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="B30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="5">
         <v>7.0</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="B31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="5">
         <v>8.0</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>171</v>
+      <c r="E31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="B32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="5">
         <v>8.0</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>172</v>
+      <c r="F32" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="B33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="5">
         <v>9.0</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B34" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C34" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="B34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="5">
         <v>9.0</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>173</v>
+      <c r="F34" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B35" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="B35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="5">
         <v>10.0</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>174</v>
+      <c r="E35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B36" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C36" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="B36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="5">
         <v>10.0</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C37" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="A37" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="5">
         <v>1.0</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B38" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C38" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="A38" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="5">
         <v>1.0</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>175</v>
+      <c r="F38" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B39" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C39" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="A39" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B40" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C40" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="A40" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="5">
         <v>3.0</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B41" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C41" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="A41" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="5">
         <v>4.0</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="E41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="A42" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="5">
         <v>4.0</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B43" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="A43" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="5">
         <v>5.0</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>176</v>
+      <c r="E43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B44" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C44" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="A44" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="5">
         <v>5.0</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B45" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C45" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="A45" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="5">
         <v>6.0</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B46" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C46" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="A46" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="5">
         <v>7.0</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>177</v>
+      <c r="F46" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B47" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C47" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="A47" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="5">
         <v>8.0</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="6" t="s">
+      <c r="E47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B48" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C48" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="A48" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="5">
         <v>8.0</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B49" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C49" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="A49" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="5">
         <v>9.0</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B50" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C50" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="A50" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="5">
         <v>10.0</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3588,862 +4609,862 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="5">
         <v>1.0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
         <v>1.0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>178</v>
+      <c r="F3" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5">
         <v>1.0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="5">
         <v>3.0</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="5">
         <v>3.0</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="5">
         <v>4.0</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="5">
         <v>5.0</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="5">
         <v>6.0</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="5">
         <v>6.0</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="5">
         <v>7.0</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="5">
         <v>7.0</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>2019.0</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="5">
         <v>8.0</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="A16" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="5">
         <v>1.0</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="A17" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="5">
         <v>1.0</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="A18" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="5">
         <v>1.0</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="A19" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="A20" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="A21" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="A22" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="5">
         <v>3.0</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="A23" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="5">
         <v>3.0</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="A24" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="5">
         <v>4.0</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="A25" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="5">
         <v>5.0</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="A26" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="5">
         <v>6.0</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="A27" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="5">
         <v>7.0</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B28" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="A28" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="5">
         <v>7.0</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="A29" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="5">
         <v>8.0</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="B30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="5">
         <v>1.0</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="B31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="5">
         <v>1.0</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="B32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="B33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B34" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C34" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="B34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B35" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="B35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="5">
         <v>3.0</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B36" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C36" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="B36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="5">
         <v>3.0</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C37" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="B37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="5">
         <v>4.0</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B38" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C38" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="B38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="5">
         <v>5.0</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B39" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C39" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="B39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="5">
         <v>6.0</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>179</v>
+      <c r="E39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B40" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C40" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="B40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="5">
         <v>6.0</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B41" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C41" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="B41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="5">
         <v>7.0</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="E41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="B42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="5">
         <v>7.0</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B43" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="B43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="5">
         <v>7.0</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B44" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C44" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="B44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="5">
         <v>8.0</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>86</v>
       </c>
     </row>

--- a/CSEC Prep.xlsx
+++ b/CSEC Prep.xlsx
@@ -4,10 +4,11 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Syllabus" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Chemistry" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Biology" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Mathematics" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Additional Mathematics" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Additional Mathematics" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Mathematics" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Physics" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Chemistry" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Biology" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="270">
   <si>
     <t>Mathematics</t>
   </si>
@@ -29,6 +30,9 @@
     <t>Chemistry</t>
   </si>
   <si>
+    <t>Physics</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
@@ -59,6 +63,12 @@
     <t>States of Matter</t>
   </si>
   <si>
+    <t>pend</t>
+  </si>
+  <si>
+    <t>Pendelum</t>
+  </si>
+  <si>
     <t>n-t</t>
   </si>
   <si>
@@ -83,6 +93,12 @@
     <t>Mixtures and Separations</t>
   </si>
   <si>
+    <t>m-q</t>
+  </si>
+  <si>
+    <t>Measuring and Quantities</t>
+  </si>
+  <si>
     <t>c-a</t>
   </si>
   <si>
@@ -107,6 +123,12 @@
     <t>Atomic Structure</t>
   </si>
   <si>
+    <t>t-f</t>
+  </si>
+  <si>
+    <t>Turning Forces</t>
+  </si>
+  <si>
     <t>sets</t>
   </si>
   <si>
@@ -131,6 +153,12 @@
     <t>Periodicity</t>
   </si>
   <si>
+    <t>defo</t>
+  </si>
+  <si>
+    <t>Deformation</t>
+  </si>
+  <si>
     <t>meas</t>
   </si>
   <si>
@@ -155,6 +183,12 @@
     <t>Structure and Bonding</t>
   </si>
   <si>
+    <t>forc</t>
+  </si>
+  <si>
+    <t>Forces</t>
+  </si>
+  <si>
     <t>stat</t>
   </si>
   <si>
@@ -179,6 +213,12 @@
     <t>Moles</t>
   </si>
   <si>
+    <t>moti</t>
+  </si>
+  <si>
+    <t>Motion</t>
+  </si>
+  <si>
     <t>vect</t>
   </si>
   <si>
@@ -197,6 +237,12 @@
     <t>Acids, Bases and Salts</t>
   </si>
   <si>
+    <t>mome</t>
+  </si>
+  <si>
+    <t>Momentum</t>
+  </si>
+  <si>
     <t>r-f-g</t>
   </si>
   <si>
@@ -221,6 +267,12 @@
     <t>Redox</t>
   </si>
   <si>
+    <t>w-e-p</t>
+  </si>
+  <si>
+    <t>Work, Energy and Power</t>
+  </si>
+  <si>
     <t>g-t</t>
   </si>
   <si>
@@ -245,6 +297,12 @@
     <t>Electrochemistry</t>
   </si>
   <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
     <t>v-m</t>
   </si>
   <si>
@@ -269,6 +327,12 @@
     <t>Rates of Reaction</t>
   </si>
   <si>
+    <t>n-o-h</t>
+  </si>
+  <si>
+    <t>Nature of Heat</t>
+  </si>
+  <si>
     <t>sequ</t>
   </si>
   <si>
@@ -293,6 +357,12 @@
     <t>Energetics</t>
   </si>
   <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
     <t>move</t>
   </si>
   <si>
@@ -305,6 +375,12 @@
     <t>Organic Chemistry Introduction</t>
   </si>
   <si>
+    <t>p-o-m</t>
+  </si>
+  <si>
+    <t>Phases of Matter</t>
+  </si>
+  <si>
     <t>prob</t>
   </si>
   <si>
@@ -323,6 +399,12 @@
     <t>Organic Chemistry Reactions</t>
   </si>
   <si>
+    <t>expa</t>
+  </si>
+  <si>
+    <t>Expansion</t>
+  </si>
+  <si>
     <t>i-n-s</t>
   </si>
   <si>
@@ -335,6 +417,12 @@
     <t>Polymers</t>
   </si>
   <si>
+    <t>g-l</t>
+  </si>
+  <si>
+    <t>Gas Laws</t>
+  </si>
+  <si>
     <t>eye</t>
   </si>
   <si>
@@ -347,6 +435,12 @@
     <t>Soaps</t>
   </si>
   <si>
+    <t>s-l-h</t>
+  </si>
+  <si>
+    <t>Specific Latent Heat</t>
+  </si>
+  <si>
     <t>repr</t>
   </si>
   <si>
@@ -359,6 +453,12 @@
     <t>Metals</t>
   </si>
   <si>
+    <t>s-h-c</t>
+  </si>
+  <si>
+    <t>Specific Heat Capacity</t>
+  </si>
+  <si>
     <t>dise</t>
   </si>
   <si>
@@ -371,6 +471,12 @@
     <t>Non-Metals</t>
   </si>
   <si>
+    <t>h-t</t>
+  </si>
+  <si>
+    <t>Heat Transfer</t>
+  </si>
+  <si>
     <t>c-d</t>
   </si>
   <si>
@@ -383,6 +489,12 @@
     <t>Gas Preparation</t>
   </si>
   <si>
+    <t>w-t-m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wave Types and Motion </t>
+  </si>
+  <si>
     <t>gene</t>
   </si>
   <si>
@@ -395,6 +507,12 @@
     <t>Water</t>
   </si>
   <si>
+    <t>soun</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
     <t>v-e-s</t>
   </si>
   <si>
@@ -407,6 +525,12 @@
     <t>Green Chemistry</t>
   </si>
   <si>
+    <t>e-w</t>
+  </si>
+  <si>
+    <t>Electromagnetic Waves</t>
+  </si>
+  <si>
     <t>drug</t>
   </si>
   <si>
@@ -419,6 +543,90 @@
     <t>Qualitative Analysis</t>
   </si>
   <si>
+    <t>l-w</t>
+  </si>
+  <si>
+    <t>Light Waves</t>
+  </si>
+  <si>
+    <t>refl</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>refr</t>
+  </si>
+  <si>
+    <t>Refraction</t>
+  </si>
+  <si>
+    <t>t-i-r</t>
+  </si>
+  <si>
+    <t>Tota Internal Reflection</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>Lenses</t>
+  </si>
+  <si>
+    <t>e-c</t>
+  </si>
+  <si>
+    <t>Electrical Conductors</t>
+  </si>
+  <si>
+    <t>e-s</t>
+  </si>
+  <si>
+    <t>Electrostatics</t>
+  </si>
+  <si>
+    <t>e-q</t>
+  </si>
+  <si>
+    <t>Electrical Quantities</t>
+  </si>
+  <si>
+    <t>circ</t>
+  </si>
+  <si>
+    <t>Cicuits</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>magn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnitism </t>
+  </si>
+  <si>
+    <t>m-g-i</t>
+  </si>
+  <si>
+    <t>Motors, Generators and Induced e.m.f</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>d-a</t>
+  </si>
+  <si>
+    <t>Describing Atoms</t>
+  </si>
+  <si>
+    <t>radi</t>
+  </si>
+  <si>
+    <t>Radioactivity</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
@@ -440,6 +648,105 @@
     <t>b</t>
   </si>
   <si>
+    <t>alge, quad</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b-c</t>
+  </si>
+  <si>
+    <t>a-c</t>
+  </si>
+  <si>
+    <t>a-b</t>
+  </si>
+  <si>
+    <t>inte, trig</t>
+  </si>
+  <si>
+    <t>b-d</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a-d</t>
+  </si>
+  <si>
+    <t>alge, meas</t>
+  </si>
+  <si>
+    <t>alge, g-t</t>
+  </si>
+  <si>
+    <t>alge, comp, c-a</t>
+  </si>
+  <si>
+    <t>alge, comp</t>
+  </si>
+  <si>
+    <t>g-t, v-m</t>
+  </si>
+  <si>
+    <t>a-e</t>
+  </si>
+  <si>
+    <t>alge, r-f-g</t>
+  </si>
+  <si>
+    <t>alge, comp, meas</t>
+  </si>
+  <si>
+    <t>comp, g-t</t>
+  </si>
+  <si>
+    <t>alge, v-m</t>
+  </si>
+  <si>
+    <t>c-a, alge</t>
+  </si>
+  <si>
+    <t>stat, alge</t>
+  </si>
+  <si>
+    <t>sequ, alge</t>
+  </si>
+  <si>
+    <t>a-f</t>
+  </si>
+  <si>
+    <t>lens, m-q</t>
+  </si>
+  <si>
+    <t>d-e</t>
+  </si>
+  <si>
+    <t>s-e</t>
+  </si>
+  <si>
+    <t>e-q, w-t-m</t>
+  </si>
+  <si>
+    <t>s-l-h, h-t</t>
+  </si>
+  <si>
+    <t>e-f</t>
+  </si>
+  <si>
+    <t>quan, forc, mome</t>
+  </si>
+  <si>
+    <t>e-c, elec</t>
+  </si>
+  <si>
+    <t>s-h-c, s-l-h</t>
+  </si>
+  <si>
+    <t>mome, forc</t>
+  </si>
+  <si>
     <t>a-b-s, mole</t>
   </si>
   <si>
@@ -449,33 +756,18 @@
     <t>f</t>
   </si>
   <si>
-    <t>a-b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>n-m, redo</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>n-m, peri</t>
   </si>
   <si>
-    <t>a-c</t>
-  </si>
-  <si>
     <t>d-f</t>
   </si>
   <si>
     <t>meta, n-m</t>
   </si>
   <si>
-    <t>a-e</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
@@ -485,9 +777,6 @@
     <t>mole, reac</t>
   </si>
   <si>
-    <t>b-c</t>
-  </si>
-  <si>
     <t>reac, m-s</t>
   </si>
   <si>
@@ -521,18 +810,12 @@
     <t>envi, f-r, v-e-s</t>
   </si>
   <si>
-    <t>b-d</t>
-  </si>
-  <si>
     <t>gene, nutr, dise</t>
   </si>
   <si>
     <t>biod, r-g-e</t>
   </si>
   <si>
-    <t>a-d</t>
-  </si>
-  <si>
     <t>excr, home</t>
   </si>
   <si>
@@ -543,48 +826,6 @@
   </si>
   <si>
     <t>gene, v-e-s</t>
-  </si>
-  <si>
-    <t>alge, meas</t>
-  </si>
-  <si>
-    <t>alge, g-t</t>
-  </si>
-  <si>
-    <t>alge, comp, c-a</t>
-  </si>
-  <si>
-    <t>alge, comp</t>
-  </si>
-  <si>
-    <t>g-t, v-m</t>
-  </si>
-  <si>
-    <t>alge, r-f-g</t>
-  </si>
-  <si>
-    <t>alge, comp, meas</t>
-  </si>
-  <si>
-    <t>comp, g-t</t>
-  </si>
-  <si>
-    <t>alge, v-m</t>
-  </si>
-  <si>
-    <t>c-a, alge</t>
-  </si>
-  <si>
-    <t>stat, alge</t>
-  </si>
-  <si>
-    <t>sequ, alge</t>
-  </si>
-  <si>
-    <t>alge, quad</t>
-  </si>
-  <si>
-    <t>inte, trig</t>
   </si>
 </sst>
 </file>
@@ -669,6 +910,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -880,6 +1125,7 @@
     <col customWidth="1" min="5" max="5" width="29.29"/>
     <col customWidth="1" min="8" max="8" width="31.86"/>
     <col customWidth="1" min="11" max="11" width="29.0"/>
+    <col customWidth="1" min="14" max="14" width="29.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -899,8 +1145,9 @@
         <v>3</v>
       </c>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -916,35 +1163,39 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -960,448 +1211,687 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>91</v>
+        <v>112</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>95</v>
+        <v>118</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="5" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>101</v>
+        <v>126</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="G16" s="5" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>105</v>
+        <v>132</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17">
       <c r="G17" s="5" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>109</v>
+        <v>138</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="G18" s="5" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>113</v>
+        <v>144</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="G19" s="5" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>117</v>
+        <v>150</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="G20" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>121</v>
+        <v>156</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="21">
       <c r="G21" s="5" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>125</v>
+        <v>162</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="G22" s="5" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>129</v>
+        <v>168</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23">
       <c r="G23" s="5" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>133</v>
+        <v>174</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="M24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="M25" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="M26" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="M27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="M28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="M29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="M30" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="M31" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="M32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="M33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="M35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="M36" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="M37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1419,27 +1909,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B2" s="5">
         <v>0.0</v>
@@ -1451,15 +1941,15 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B3" s="5">
         <v>0.0</v>
@@ -1471,15 +1961,15 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B4" s="5">
         <v>0.0</v>
@@ -1491,15 +1981,15 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B5" s="5">
         <v>0.0</v>
@@ -1508,18 +1998,18 @@
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B6" s="5">
         <v>0.0</v>
@@ -1531,15 +2021,15 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B7" s="5">
         <v>0.0</v>
@@ -1548,18 +2038,18 @@
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B8" s="5">
         <v>0.0</v>
@@ -1568,18 +2058,18 @@
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B9" s="5">
         <v>0.0</v>
@@ -1588,18 +2078,18 @@
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B10" s="5">
         <v>0.0</v>
@@ -1608,18 +2098,18 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B11" s="5">
         <v>0.0</v>
@@ -1628,18 +2118,18 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B12" s="5">
         <v>0.0</v>
@@ -1648,18 +2138,18 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B13" s="5">
         <v>0.0</v>
@@ -1668,18 +2158,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -1688,18 +2178,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -1708,13 +2198,13 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -1728,13 +2218,13 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1748,18 +2238,18 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -1771,15 +2261,15 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -1788,18 +2278,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -1808,18 +2298,18 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -1828,18 +2318,18 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -1848,18 +2338,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -1868,18 +2358,18 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -1888,18 +2378,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -1908,18 +2398,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -1928,18 +2418,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -1948,18 +2438,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -1968,18 +2458,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -1988,13 +2478,13 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -2008,13 +2498,13 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -2028,18 +2518,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -2048,18 +2538,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -2068,18 +2558,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -2087,19 +2577,19 @@
       <c r="C34" s="5">
         <v>2.0</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -2108,18 +2598,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>158</v>
+        <v>208</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -2131,15 +2621,15 @@
         <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -2148,18 +2638,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -2168,18 +2658,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -2188,18 +2678,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -2208,18 +2698,18 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -2228,18 +2718,18 @@
         <v>2.0</v>
       </c>
       <c r="D41" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>149</v>
+        <v>7.0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -2247,19 +2737,19 @@
       <c r="C42" s="5">
         <v>2.0</v>
       </c>
-      <c r="D42" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>139</v>
+      <c r="D42" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -2268,18 +2758,18 @@
         <v>2.0</v>
       </c>
       <c r="D43" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -2288,13 +2778,13 @@
         <v>2.0</v>
       </c>
       <c r="D44" s="5">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -2308,13 +2798,13 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -2328,18 +2818,18 @@
         <v>2.0</v>
       </c>
       <c r="D46" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>149</v>
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -2348,18 +2838,18 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -2368,18 +2858,18 @@
         <v>2.0</v>
       </c>
       <c r="D48" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>90</v>
+        <v>2.0</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -2388,18 +2878,18 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B50" s="5">
         <v>0.0</v>
@@ -2408,18 +2898,18 @@
         <v>2.0</v>
       </c>
       <c r="D50" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -2427,19 +2917,19 @@
       <c r="C51" s="5">
         <v>2.0</v>
       </c>
-      <c r="D51" s="6">
-        <v>2.0</v>
+      <c r="D51" s="5">
+        <v>4.0</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -2448,18 +2938,18 @@
         <v>2.0</v>
       </c>
       <c r="D52" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B53" s="5">
         <v>0.0</v>
@@ -2468,18 +2958,18 @@
         <v>2.0</v>
       </c>
       <c r="D53" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>145</v>
+        <v>6.0</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -2488,18 +2978,18 @@
         <v>2.0</v>
       </c>
       <c r="D54" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>160</v>
+        <v>208</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -2508,18 +2998,18 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>140</v>
+        <v>7.0</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B56" s="5">
         <v>0.0</v>
@@ -2528,93 +3018,13 @@
         <v>2.0</v>
       </c>
       <c r="D56" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>139</v>
+        <v>8.0</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D57" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C58" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D58" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C59" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D59" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C60" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D60" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2632,35 +3042,35 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="29.29"/>
+    <col customWidth="1" min="6" max="6" width="28.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B2" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="5">
         <v>2.0</v>
@@ -2669,315 +3079,315 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B3" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="5">
         <v>2.0</v>
       </c>
       <c r="D3" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B4" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="5">
         <v>2.0</v>
       </c>
       <c r="D4" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B5" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="5">
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B6" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="5">
         <v>2.0</v>
       </c>
       <c r="D6" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B7" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="5">
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B8" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="5">
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B9" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="5">
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B10" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="5">
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B11" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="5">
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B12" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="5">
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B13" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" s="5">
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B14" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="5">
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B15" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="5">
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B16" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="5">
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B17" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C17" s="5">
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -2986,18 +3396,18 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -3006,18 +3416,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -3026,18 +3436,18 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -3046,18 +3456,18 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -3066,18 +3476,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -3086,18 +3496,18 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -3106,18 +3516,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -3126,18 +3536,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -3146,18 +3556,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>166</v>
+        <v>211</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -3166,18 +3576,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>156</v>
+        <v>5.0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -3186,18 +3596,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -3206,18 +3616,18 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B30" s="5">
         <v>0.0</v>
@@ -3226,18 +3636,18 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -3246,18 +3656,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>168</v>
+        <v>8.0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -3266,18 +3676,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>149</v>
+        <v>8.0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -3286,18 +3696,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -3306,18 +3716,18 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -3326,18 +3736,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>169</v>
+        <v>10.0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6">
-        <v>2014.0</v>
+      <c r="A36" s="5">
+        <v>2019.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -3346,213 +3756,593 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>170</v>
+        <v>209</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="A37" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="5">
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
         <v>1.0</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>18</v>
+      <c r="E37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B38" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C38" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>171</v>
+      <c r="A38" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B39" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C39" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>172</v>
+      <c r="A39" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B40" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="A40" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="5">
         <v>2.0</v>
       </c>
       <c r="D40" s="5">
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B41" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="A41" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="5">
         <v>2.0</v>
       </c>
       <c r="D41" s="5">
         <v>4.0</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>26</v>
+      <c r="E41" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B42" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="A42" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="5">
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>174</v>
+        <v>209</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B43" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="A43" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="5">
         <v>2.0</v>
       </c>
       <c r="D43" s="5">
         <v>5.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B44" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C44" s="6">
+      <c r="A44" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="5">
         <v>2.0</v>
       </c>
       <c r="D44" s="5">
         <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B45" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="A45" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="5">
         <v>2.0</v>
       </c>
       <c r="D45" s="5">
         <v>6.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="B46" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C46" s="6">
+      <c r="A46" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="5">
         <v>2.0</v>
       </c>
       <c r="D46" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="5">
         <v>6.0</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>106</v>
+      <c r="E59" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3569,36 +4359,33 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="6" max="6" width="28.14"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="5">
         <v>2.0</v>
@@ -3607,38 +4394,38 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
         <v>1.0</v>
       </c>
-      <c r="C3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2.0</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B4" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" s="5">
         <v>2.0</v>
@@ -3647,275 +4434,275 @@
         <v>2.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B5" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="5">
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B6" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="5">
         <v>2.0</v>
       </c>
       <c r="D6" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B7" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="5">
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B8" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="5">
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B9" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="5">
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B10" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" s="5">
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B11" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="5">
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="5">
         <v>1.0</v>
       </c>
-      <c r="C12" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7.0</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B13" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" s="5">
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B14" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" s="5">
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B15" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="5">
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B16" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C16" s="5">
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B17" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C17" s="5">
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -3924,18 +4711,18 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -3944,18 +4731,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -3964,18 +4751,18 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -3984,18 +4771,18 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -4007,15 +4794,15 @@
         <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -4024,18 +4811,18 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -4044,18 +4831,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -4064,18 +4851,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -4084,18 +4871,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -4104,18 +4891,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -4124,18 +4911,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -4144,18 +4931,18 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B30" s="5">
         <v>0.0</v>
@@ -4164,18 +4951,18 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -4184,18 +4971,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -4204,18 +4991,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -4224,18 +5011,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -4244,18 +5031,18 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -4264,18 +5051,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -4284,18 +5071,18 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -4304,18 +5091,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -4324,18 +5111,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -4344,18 +5131,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -4364,18 +5151,18 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -4384,18 +5171,18 @@
         <v>2.0</v>
       </c>
       <c r="D41" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -4404,18 +5191,18 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -4424,153 +5211,13 @@
         <v>2.0</v>
       </c>
       <c r="D43" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C44" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C45" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D45" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C46" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D46" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D47" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C48" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D48" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C50" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D50" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4590,27 +5237,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B2" s="5">
         <v>0.0</v>
@@ -4622,15 +5269,15 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B3" s="5">
         <v>0.0</v>
@@ -4642,15 +5289,15 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B4" s="5">
         <v>0.0</v>
@@ -4662,15 +5309,15 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B5" s="5">
         <v>0.0</v>
@@ -4679,18 +5326,18 @@
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B6" s="5">
         <v>0.0</v>
@@ -4702,15 +5349,15 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B7" s="5">
         <v>0.0</v>
@@ -4719,18 +5366,18 @@
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B8" s="5">
         <v>0.0</v>
@@ -4739,18 +5386,18 @@
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B9" s="5">
         <v>0.0</v>
@@ -4759,18 +5406,18 @@
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B10" s="5">
         <v>0.0</v>
@@ -4779,18 +5426,18 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B11" s="5">
         <v>0.0</v>
@@ -4799,18 +5446,18 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B12" s="5">
         <v>0.0</v>
@@ -4819,18 +5466,18 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B13" s="5">
         <v>0.0</v>
@@ -4839,18 +5486,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -4859,18 +5506,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -4879,13 +5526,13 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -4899,13 +5546,13 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17">
@@ -4919,18 +5566,18 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -4942,15 +5589,15 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -4959,18 +5606,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -4979,18 +5626,18 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -4999,18 +5646,18 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -5019,18 +5666,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -5039,18 +5686,18 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -5059,18 +5706,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -5079,18 +5726,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -5099,18 +5746,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -5119,18 +5766,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -5139,18 +5786,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -5159,13 +5806,13 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>86</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
@@ -5179,13 +5826,13 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -5199,18 +5846,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -5219,18 +5866,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -5239,18 +5886,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -5262,15 +5909,15 @@
         <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -5279,18 +5926,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -5302,15 +5949,15 @@
         <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -5319,18 +5966,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -5339,18 +5986,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -5359,18 +6006,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -5379,18 +6026,18 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -5399,18 +6046,18 @@
         <v>2.0</v>
       </c>
       <c r="D41" s="5">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -5419,18 +6066,18 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -5439,19 +6086,1237 @@
         <v>2.0</v>
       </c>
       <c r="D43" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="29.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
         <v>2017.0</v>
       </c>
+      <c r="B14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>2014.0</v>
+      </c>
       <c r="B44" s="5">
         <v>0.0</v>
       </c>
@@ -5459,13 +7324,53 @@
         <v>2.0</v>
       </c>
       <c r="D44" s="5">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>86</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/CSEC Prep.xlsx
+++ b/CSEC Prep.xlsx
@@ -4,8 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Syllabus" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Additional Mathematics" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Mathematics" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Mathematics" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Additional Mathematics" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Physics" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Chemistry" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Biology" sheetId="6" r:id="rId9"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="282">
   <si>
     <t>Mathematics</t>
   </si>
@@ -642,81 +642,81 @@
     <t>Letter</t>
   </si>
   <si>
+    <t>a-c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a-b</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
+    <t>a-d</t>
+  </si>
+  <si>
+    <t>alge, meas</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>alge, g-t</t>
+  </si>
+  <si>
+    <t>alge, comp, c-a</t>
+  </si>
+  <si>
+    <t>alge, comp</t>
+  </si>
+  <si>
+    <t>g-t, v-m</t>
+  </si>
+  <si>
+    <t>a-e</t>
+  </si>
+  <si>
+    <t>alge, r-f-g</t>
+  </si>
+  <si>
+    <t>alge, comp, meas</t>
+  </si>
+  <si>
+    <t>comp, g-t</t>
+  </si>
+  <si>
+    <t>alge, v-m</t>
+  </si>
+  <si>
+    <t>c-a, alge</t>
+  </si>
+  <si>
+    <t>stat, alge</t>
+  </si>
+  <si>
+    <t>sequ, alge</t>
+  </si>
+  <si>
+    <t>b-c</t>
+  </si>
+  <si>
+    <t>a-f</t>
+  </si>
+  <si>
     <t>alge, quad</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>b-c</t>
-  </si>
-  <si>
-    <t>a-c</t>
-  </si>
-  <si>
-    <t>a-b</t>
-  </si>
-  <si>
     <t>inte, trig</t>
   </si>
   <si>
     <t>b-d</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>a-d</t>
-  </si>
-  <si>
-    <t>alge, meas</t>
-  </si>
-  <si>
-    <t>alge, g-t</t>
-  </si>
-  <si>
-    <t>alge, comp, c-a</t>
-  </si>
-  <si>
-    <t>alge, comp</t>
-  </si>
-  <si>
-    <t>g-t, v-m</t>
-  </si>
-  <si>
-    <t>a-e</t>
-  </si>
-  <si>
-    <t>alge, r-f-g</t>
-  </si>
-  <si>
-    <t>alge, comp, meas</t>
-  </si>
-  <si>
-    <t>comp, g-t</t>
-  </si>
-  <si>
-    <t>alge, v-m</t>
-  </si>
-  <si>
-    <t>c-a, alge</t>
-  </si>
-  <si>
-    <t>stat, alge</t>
-  </si>
-  <si>
-    <t>sequ, alge</t>
-  </si>
-  <si>
-    <t>a-f</t>
-  </si>
-  <si>
     <t>lens, m-q</t>
   </si>
   <si>
@@ -747,6 +747,18 @@
     <t>mome, forc</t>
   </si>
   <si>
+    <t>w-e-p, moti, mome</t>
+  </si>
+  <si>
+    <t>g-l, n-o-h</t>
+  </si>
+  <si>
+    <t>refr, t-i-r</t>
+  </si>
+  <si>
+    <t>e-q, w-e-p</t>
+  </si>
+  <si>
     <t>a-b-s, mole</t>
   </si>
   <si>
@@ -789,6 +801,21 @@
     <t>a-b-s, wate, s-b</t>
   </si>
   <si>
+    <t>r-o-r, ener</t>
+  </si>
+  <si>
+    <t>r-o-r, meta</t>
+  </si>
+  <si>
+    <t>meta, peri</t>
+  </si>
+  <si>
+    <t>meta, mole</t>
+  </si>
+  <si>
+    <t>intro, reac</t>
+  </si>
+  <si>
     <t>drug, r-g-e</t>
   </si>
   <si>
@@ -826,6 +853,15 @@
   </si>
   <si>
     <t>gene, v-e-s</t>
+  </si>
+  <si>
+    <t>move, i-n-s</t>
+  </si>
+  <si>
+    <t>repr, excr</t>
+  </si>
+  <si>
+    <t>home, nutr</t>
   </si>
 </sst>
 </file>
@@ -1906,6 +1942,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="28.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1929,10 +1968,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B2" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="5">
         <v>2.0</v>
@@ -1944,255 +1983,255 @@
         <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B3" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="5">
         <v>2.0</v>
       </c>
       <c r="D3" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B4" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="5">
         <v>2.0</v>
       </c>
       <c r="D4" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B5" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="5">
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B6" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="5">
         <v>2.0</v>
       </c>
       <c r="D6" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B7" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="5">
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B8" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="5">
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>212</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B9" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="5">
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>213</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B10" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="5">
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B11" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="5">
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B12" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="5">
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B13" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" s="5">
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B14" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="5">
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B15" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="5">
         <v>2.0</v>
@@ -2201,55 +2240,55 @@
         <v>8.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B16" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="5">
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B17" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C17" s="5">
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -2264,12 +2303,12 @@
         <v>211</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -2278,18 +2317,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -2301,15 +2340,15 @@
         <v>2.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -2321,15 +2360,15 @@
         <v>2.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -2338,18 +2377,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -2364,12 +2403,12 @@
         <v>211</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -2378,18 +2417,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -2398,18 +2437,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -2418,18 +2457,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -2438,10 +2477,10 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>57</v>
@@ -2449,7 +2488,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -2458,18 +2497,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -2478,18 +2517,18 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B30" s="5">
         <v>0.0</v>
@@ -2498,18 +2537,18 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -2518,18 +2557,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -2538,18 +2577,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -2558,18 +2597,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -2578,18 +2617,18 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -2598,18 +2637,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -2618,18 +2657,18 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -2638,18 +2677,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -2658,18 +2697,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -2678,18 +2717,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -2698,18 +2737,18 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -2718,18 +2757,18 @@
         <v>2.0</v>
       </c>
       <c r="D41" s="5">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -2738,18 +2777,18 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -2758,18 +2797,18 @@
         <v>2.0</v>
       </c>
       <c r="D43" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -2778,18 +2817,18 @@
         <v>2.0</v>
       </c>
       <c r="D44" s="5">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B45" s="5">
         <v>0.0</v>
@@ -2798,18 +2837,18 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B46" s="5">
         <v>0.0</v>
@@ -2818,18 +2857,18 @@
         <v>2.0</v>
       </c>
       <c r="D46" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>212</v>
+        <v>7.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -2838,18 +2877,18 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="5">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -2858,18 +2897,18 @@
         <v>2.0</v>
       </c>
       <c r="D48" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E48" s="6" t="s">
+        <v>8.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>49</v>
+      <c r="F48" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -2878,18 +2917,18 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B50" s="5">
         <v>0.0</v>
@@ -2898,18 +2937,18 @@
         <v>2.0</v>
       </c>
       <c r="D50" s="5">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -2918,18 +2957,18 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>213</v>
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -2938,18 +2977,18 @@
         <v>2.0</v>
       </c>
       <c r="D52" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>213</v>
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B53" s="5">
         <v>0.0</v>
@@ -2958,18 +2997,18 @@
         <v>2.0</v>
       </c>
       <c r="D53" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>213</v>
+        <v>2.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -2978,18 +3017,18 @@
         <v>2.0</v>
       </c>
       <c r="D54" s="5">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -2998,33 +3037,493 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>212</v>
+        <v>3.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
         <v>2016.0</v>
       </c>
-      <c r="B56" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C56" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="B66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D75" s="5">
         <v>8.0</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>107</v>
+      <c r="E75" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3041,9 +3540,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="6" max="6" width="28.14"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -3067,10 +3563,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="5">
         <v>2.0</v>
@@ -3079,258 +3575,258 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
         <v>1.0</v>
       </c>
-      <c r="C3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2.0</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5">
         <v>1.0</v>
       </c>
-      <c r="C4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2.0</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B5" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="5">
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B6" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="5">
         <v>2.0</v>
       </c>
       <c r="D6" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B7" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="5">
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B8" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="5">
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B9" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="5">
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B10" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" s="5">
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>219</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B11" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="5">
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B12" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" s="5">
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B13" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" s="5">
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B14" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" s="5">
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B15" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="5">
         <v>2.0</v>
@@ -3342,52 +3838,52 @@
         <v>211</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="5">
         <v>1.0</v>
       </c>
-      <c r="C16" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>9.0</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="5">
         <v>1.0</v>
       </c>
-      <c r="C17" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>10.0</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -3399,15 +3895,15 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -3416,18 +3912,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -3439,15 +3935,15 @@
         <v>2.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -3459,15 +3955,15 @@
         <v>2.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -3476,18 +3972,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -3499,15 +3995,15 @@
         <v>3.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -3516,18 +4012,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>223</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -3536,18 +4032,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -3556,18 +4052,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -3576,10 +4072,10 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>57</v>
@@ -3587,7 +4083,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -3596,18 +4092,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -3616,18 +4112,18 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B30" s="5">
         <v>0.0</v>
@@ -3636,18 +4132,18 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -3656,18 +4152,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -3676,18 +4172,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -3696,18 +4192,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -3716,18 +4212,18 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>227</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -3736,18 +4232,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -3756,18 +4252,18 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -3776,18 +4272,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -3796,18 +4292,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -3816,18 +4312,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -3836,18 +4332,18 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -3856,18 +4352,18 @@
         <v>2.0</v>
       </c>
       <c r="D41" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -3876,18 +4372,18 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -3896,18 +4392,18 @@
         <v>2.0</v>
       </c>
       <c r="D43" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -3916,18 +4412,18 @@
         <v>2.0</v>
       </c>
       <c r="D44" s="5">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B45" s="5">
         <v>0.0</v>
@@ -3936,18 +4432,18 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B46" s="5">
         <v>0.0</v>
@@ -3956,18 +4452,18 @@
         <v>2.0</v>
       </c>
       <c r="D46" s="5">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>231</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -3976,18 +4472,18 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="5">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -3996,18 +4492,18 @@
         <v>2.0</v>
       </c>
       <c r="D48" s="5">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -4016,18 +4512,18 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B50" s="5">
         <v>0.0</v>
@@ -4036,18 +4532,18 @@
         <v>2.0</v>
       </c>
       <c r="D50" s="5">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -4056,18 +4552,18 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E51" s="5" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>208</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -4076,18 +4572,18 @@
         <v>2.0</v>
       </c>
       <c r="D52" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B53" s="5">
         <v>0.0</v>
@@ -4096,18 +4592,18 @@
         <v>2.0</v>
       </c>
       <c r="D53" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -4116,18 +4612,18 @@
         <v>2.0</v>
       </c>
       <c r="D54" s="5">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>222</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -4136,18 +4632,18 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>37</v>
+        <v>7.0</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B56" s="5">
         <v>0.0</v>
@@ -4156,18 +4652,18 @@
         <v>2.0</v>
       </c>
       <c r="D56" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>209</v>
+        <v>8.0</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B57" s="5">
         <v>0.0</v>
@@ -4176,18 +4672,18 @@
         <v>2.0</v>
       </c>
       <c r="D57" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>214</v>
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B58" s="5">
         <v>0.0</v>
@@ -4196,18 +4692,18 @@
         <v>2.0</v>
       </c>
       <c r="D58" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>214</v>
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B59" s="5">
         <v>0.0</v>
@@ -4216,18 +4712,18 @@
         <v>2.0</v>
       </c>
       <c r="D59" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>214</v>
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B60" s="5">
         <v>0.0</v>
@@ -4236,18 +4732,18 @@
         <v>2.0</v>
       </c>
       <c r="D60" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>57</v>
+        <v>2.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B61" s="5">
         <v>0.0</v>
@@ -4256,18 +4752,18 @@
         <v>2.0</v>
       </c>
       <c r="D61" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>232</v>
+        <v>3.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B62" s="5">
         <v>0.0</v>
@@ -4276,18 +4772,18 @@
         <v>2.0</v>
       </c>
       <c r="D62" s="5">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B63" s="5">
         <v>0.0</v>
@@ -4296,18 +4792,18 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>209</v>
+        <v>4.0</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B64" s="5">
         <v>0.0</v>
@@ -4316,18 +4812,18 @@
         <v>2.0</v>
       </c>
       <c r="D64" s="5">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B65" s="5">
         <v>0.0</v>
@@ -4336,13 +4832,93 @@
         <v>2.0</v>
       </c>
       <c r="D65" s="5">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4970,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>233</v>
@@ -4434,7 +5010,7 @@
         <v>2.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>199</v>
@@ -4454,7 +5030,7 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>201</v>
@@ -4474,7 +5050,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>235</v>
@@ -4494,7 +5070,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>236</v>
@@ -4514,7 +5090,7 @@
         <v>4.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>145</v>
@@ -4534,7 +5110,7 @@
         <v>5.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>45</v>
@@ -4554,7 +5130,7 @@
         <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>65</v>
@@ -4574,7 +5150,7 @@
         <v>6.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>79</v>
@@ -4594,7 +5170,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>196</v>
@@ -4614,7 +5190,7 @@
         <v>2.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>157</v>
@@ -4634,7 +5210,7 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>169</v>
@@ -4654,7 +5230,7 @@
         <v>3.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>201</v>
@@ -4674,7 +5250,7 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>65</v>
@@ -4694,7 +5270,7 @@
         <v>5.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>151</v>
@@ -4714,7 +5290,7 @@
         <v>5.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>237</v>
@@ -4734,7 +5310,7 @@
         <v>6.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>183</v>
@@ -4754,7 +5330,7 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>201</v>
@@ -4794,7 +5370,7 @@
         <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>239</v>
@@ -4814,7 +5390,7 @@
         <v>2.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>65</v>
@@ -4834,7 +5410,7 @@
         <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>73</v>
@@ -4854,7 +5430,7 @@
         <v>3.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>145</v>
@@ -4874,7 +5450,7 @@
         <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>139</v>
@@ -4894,7 +5470,7 @@
         <v>4.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>169</v>
@@ -4914,7 +5490,7 @@
         <v>4.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>157</v>
@@ -4934,7 +5510,7 @@
         <v>5.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>240</v>
@@ -4954,7 +5530,7 @@
         <v>5.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>189</v>
@@ -4974,7 +5550,7 @@
         <v>6.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>119</v>
@@ -4994,7 +5570,7 @@
         <v>6.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>83</v>
@@ -5014,7 +5590,7 @@
         <v>1.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>201</v>
@@ -5034,7 +5610,7 @@
         <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>145</v>
@@ -5054,7 +5630,7 @@
         <v>2.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>119</v>
@@ -5074,7 +5650,7 @@
         <v>2.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>241</v>
@@ -5094,7 +5670,7 @@
         <v>3.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>189</v>
@@ -5114,7 +5690,7 @@
         <v>3.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>191</v>
@@ -5134,7 +5710,7 @@
         <v>4.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>65</v>
@@ -5154,7 +5730,7 @@
         <v>4.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>242</v>
@@ -5174,7 +5750,7 @@
         <v>5.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>113</v>
@@ -5194,7 +5770,7 @@
         <v>5.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>133</v>
@@ -5214,10 +5790,230 @@
         <v>6.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5269,7 +6065,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>101</v>
@@ -5289,10 +6085,10 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
@@ -5309,7 +6105,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>101</v>
@@ -5329,7 +6125,7 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>173</v>
@@ -5349,7 +6145,7 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>43</v>
@@ -5369,10 +6165,10 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -5389,10 +6185,10 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9">
@@ -5409,7 +6205,7 @@
         <v>3.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>117</v>
@@ -5429,7 +6225,7 @@
         <v>3.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>125</v>
@@ -5449,7 +6245,7 @@
         <v>4.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>91</v>
@@ -5469,7 +6265,7 @@
         <v>5.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>125</v>
@@ -5489,7 +6285,7 @@
         <v>5.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>137</v>
@@ -5509,7 +6305,7 @@
         <v>5.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>131</v>
@@ -5529,7 +6325,7 @@
         <v>6.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>143</v>
@@ -5549,10 +6345,10 @@
         <v>6.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17">
@@ -5569,7 +6365,7 @@
         <v>6.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>167</v>
@@ -5589,7 +6385,7 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>101</v>
@@ -5609,7 +6405,7 @@
         <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>111</v>
@@ -5629,7 +6425,7 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>155</v>
@@ -5649,7 +6445,7 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>101</v>
@@ -5669,7 +6465,7 @@
         <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>63</v>
@@ -5689,10 +6485,10 @@
         <v>2.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -5709,7 +6505,7 @@
         <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>91</v>
@@ -5729,7 +6525,7 @@
         <v>3.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>117</v>
@@ -5749,7 +6545,7 @@
         <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>125</v>
@@ -5769,7 +6565,7 @@
         <v>4.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>71</v>
@@ -5789,7 +6585,7 @@
         <v>5.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>125</v>
@@ -5809,10 +6605,10 @@
         <v>5.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
@@ -5829,7 +6625,7 @@
         <v>5.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>125</v>
@@ -5849,7 +6645,7 @@
         <v>6.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>143</v>
@@ -5869,7 +6665,7 @@
         <v>1.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>13</v>
@@ -5889,7 +6685,7 @@
         <v>1.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>173</v>
@@ -5909,7 +6705,7 @@
         <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>81</v>
@@ -5929,10 +6725,10 @@
         <v>2.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
@@ -5949,7 +6745,7 @@
         <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>117</v>
@@ -5969,7 +6765,7 @@
         <v>3.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>117</v>
@@ -5989,7 +6785,7 @@
         <v>3.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>125</v>
@@ -6009,7 +6805,7 @@
         <v>3.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>117</v>
@@ -6029,7 +6825,7 @@
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>125</v>
@@ -6049,7 +6845,7 @@
         <v>4.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>53</v>
@@ -6069,7 +6865,7 @@
         <v>5.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>53</v>
@@ -6089,7 +6885,7 @@
         <v>5.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>125</v>
@@ -6109,7 +6905,7 @@
         <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>117</v>
@@ -6129,7 +6925,7 @@
         <v>5.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>125</v>
@@ -6149,7 +6945,7 @@
         <v>6.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>143</v>
@@ -6169,7 +6965,7 @@
         <v>1.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>117</v>
@@ -6189,7 +6985,7 @@
         <v>1.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>111</v>
@@ -6209,7 +7005,7 @@
         <v>1.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>173</v>
@@ -6229,7 +7025,7 @@
         <v>2.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>13</v>
@@ -6249,7 +7045,7 @@
         <v>2.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>53</v>
@@ -6269,7 +7065,7 @@
         <v>3.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>117</v>
@@ -6289,7 +7085,7 @@
         <v>3.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>131</v>
@@ -6309,10 +7105,10 @@
         <v>4.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55">
@@ -6329,7 +7125,7 @@
         <v>4.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>161</v>
@@ -6349,7 +7145,7 @@
         <v>5.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>23</v>
@@ -6369,7 +7165,7 @@
         <v>5.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>125</v>
@@ -6389,7 +7185,7 @@
         <v>5.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>71</v>
@@ -6409,7 +7205,7 @@
         <v>6.0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>137</v>
@@ -6429,10 +7225,310 @@
         <v>6.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6487,7 +7583,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>69</v>
@@ -6507,7 +7603,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>99</v>
@@ -6527,7 +7623,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>79</v>
@@ -6547,7 +7643,7 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>51</v>
@@ -6567,7 +7663,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>135</v>
@@ -6587,7 +7683,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>159</v>
@@ -6607,7 +7703,7 @@
         <v>4.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>109</v>
@@ -6627,10 +7723,10 @@
         <v>4.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10">
@@ -6647,10 +7743,10 @@
         <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11">
@@ -6667,7 +7763,7 @@
         <v>5.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>147</v>
@@ -6687,10 +7783,10 @@
         <v>6.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13">
@@ -6707,7 +7803,7 @@
         <v>6.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>141</v>
@@ -6727,10 +7823,10 @@
         <v>1.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -6747,10 +7843,10 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16">
@@ -6767,7 +7863,7 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>69</v>
@@ -6787,7 +7883,7 @@
         <v>2.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>11</v>
@@ -6807,7 +7903,7 @@
         <v>2.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>165</v>
@@ -6827,7 +7923,7 @@
         <v>3.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>141</v>
@@ -6847,7 +7943,7 @@
         <v>4.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>135</v>
@@ -6867,7 +7963,7 @@
         <v>4.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>159</v>
@@ -6887,7 +7983,7 @@
         <v>5.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>69</v>
@@ -6907,10 +8003,10 @@
         <v>5.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24">
@@ -6927,7 +8023,7 @@
         <v>6.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>21</v>
@@ -6947,10 +8043,10 @@
         <v>6.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26">
@@ -6967,10 +8063,10 @@
         <v>1.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
@@ -6987,7 +8083,7 @@
         <v>1.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>69</v>
@@ -7007,7 +8103,7 @@
         <v>2.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>21</v>
@@ -7027,7 +8123,7 @@
         <v>2.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>41</v>
@@ -7047,7 +8143,7 @@
         <v>3.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>129</v>
@@ -7067,7 +8163,7 @@
         <v>3.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>135</v>
@@ -7087,7 +8183,7 @@
         <v>4.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>141</v>
@@ -7107,7 +8203,7 @@
         <v>5.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>61</v>
@@ -7127,7 +8223,7 @@
         <v>5.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>31</v>
@@ -7147,10 +8243,10 @@
         <v>6.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
@@ -7167,10 +8263,10 @@
         <v>1.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37">
@@ -7187,7 +8283,7 @@
         <v>1.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>21</v>
@@ -7207,7 +8303,7 @@
         <v>2.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>79</v>
@@ -7227,10 +8323,10 @@
         <v>3.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40">
@@ -7247,10 +8343,10 @@
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41">
@@ -7267,7 +8363,7 @@
         <v>4.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>31</v>
@@ -7287,10 +8383,10 @@
         <v>5.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43">
@@ -7307,10 +8403,10 @@
         <v>5.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44">
@@ -7327,7 +8423,7 @@
         <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>165</v>
@@ -7347,7 +8443,7 @@
         <v>6.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>115</v>
@@ -7367,10 +8463,250 @@
         <v>6.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/CSEC Prep.xlsx
+++ b/CSEC Prep.xlsx
@@ -4,11 +4,11 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Syllabus" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Mathematics" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Additional Mathematics" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Biology" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Chemistry" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Physics" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Chemistry" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Biology" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Additional Mathematics" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Mathematics" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="289">
   <si>
     <t>Mathematics</t>
   </si>
@@ -207,10 +207,10 @@
     <t>Photosynthesis</t>
   </si>
   <si>
-    <t>mole</t>
-  </si>
-  <si>
-    <t>Moles</t>
+    <t>m-c-v</t>
+  </si>
+  <si>
+    <t>Moles, Concentration and Volume</t>
   </si>
   <si>
     <t>moti</t>
@@ -594,7 +594,7 @@
     <t>circ</t>
   </si>
   <si>
-    <t>Cicuits</t>
+    <t>Circuits</t>
   </si>
   <si>
     <t>Electronics</t>
@@ -603,7 +603,7 @@
     <t>magn</t>
   </si>
   <si>
-    <t xml:space="preserve">Magnitism </t>
+    <t xml:space="preserve">Magnetism </t>
   </si>
   <si>
     <t>m-g-i</t>
@@ -642,6 +642,15 @@
     <t>Letter</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>a-c</t>
   </si>
   <si>
@@ -651,21 +660,189 @@
     <t>a-b</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>drug, r-g-e</t>
+  </si>
+  <si>
+    <t>tran, dise</t>
+  </si>
+  <si>
+    <t>b-c</t>
+  </si>
+  <si>
+    <t>c-d, repr</t>
+  </si>
+  <si>
+    <t>grow, repr</t>
+  </si>
+  <si>
+    <t>grow, move, tran</t>
+  </si>
+  <si>
+    <t>nutr, home</t>
+  </si>
+  <si>
+    <t>envi, f-r, v-e-s</t>
+  </si>
+  <si>
+    <t>b-d</t>
+  </si>
+  <si>
+    <t>gene, nutr, dise</t>
+  </si>
+  <si>
+    <t>biod, r-g-e</t>
   </si>
   <si>
     <t>a-d</t>
   </si>
   <si>
+    <t>excr, home</t>
+  </si>
+  <si>
+    <t>dise, home</t>
+  </si>
+  <si>
+    <t>gene,</t>
+  </si>
+  <si>
+    <t>gene, v-e-s</t>
+  </si>
+  <si>
+    <t>d-f</t>
+  </si>
+  <si>
+    <t>move, i-n-s</t>
+  </si>
+  <si>
+    <t>repr, excr</t>
+  </si>
+  <si>
+    <t>home, nutr</t>
+  </si>
+  <si>
+    <t>a-b-s, m-c-v</t>
+  </si>
+  <si>
+    <t>c-e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>n-m, redo</t>
+  </si>
+  <si>
+    <t>n-m, peri</t>
+  </si>
+  <si>
+    <t>meta, n-m</t>
+  </si>
+  <si>
+    <t>a-e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>m-c-v, reac</t>
+  </si>
+  <si>
+    <t>reac, m-s</t>
+  </si>
+  <si>
+    <t>redo, meta</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a-b-s, wate, s-b</t>
+  </si>
+  <si>
+    <t>r-o-r, ener</t>
+  </si>
+  <si>
+    <t>r-o-r, meta</t>
+  </si>
+  <si>
+    <t>meta, peri</t>
+  </si>
+  <si>
+    <t>meta, m-c-v</t>
+  </si>
+  <si>
+    <t>intro, reac</t>
+  </si>
+  <si>
+    <t>r-o-r, m-c-v</t>
+  </si>
+  <si>
+    <t>lens, m-q</t>
+  </si>
+  <si>
+    <t>d-e</t>
+  </si>
+  <si>
+    <t>s-e</t>
+  </si>
+  <si>
+    <t>e-q, w-t-m</t>
+  </si>
+  <si>
+    <t>s-l-h, h-t</t>
+  </si>
+  <si>
+    <t>e-f</t>
+  </si>
+  <si>
+    <t>quan, forc, mome</t>
+  </si>
+  <si>
+    <t>e-c, elec</t>
+  </si>
+  <si>
+    <t>s-h-c, s-l-h</t>
+  </si>
+  <si>
+    <t>mome, forc</t>
+  </si>
+  <si>
+    <t>w-e-p, moti, mome</t>
+  </si>
+  <si>
+    <t>g-l, n-o-h</t>
+  </si>
+  <si>
+    <t>refr, t-i-r</t>
+  </si>
+  <si>
+    <t>e-q, w-e-p</t>
+  </si>
+  <si>
+    <t>defo, m-q</t>
+  </si>
+  <si>
+    <t>s-h-c, g-l</t>
+  </si>
+  <si>
+    <t>refr, lens</t>
+  </si>
+  <si>
+    <t>circ, e-q</t>
+  </si>
+  <si>
+    <t>alge, quad</t>
+  </si>
+  <si>
+    <t>inte, trig</t>
+  </si>
+  <si>
     <t>alge, meas</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>alge, g-t</t>
   </si>
   <si>
@@ -678,9 +855,6 @@
     <t>g-t, v-m</t>
   </si>
   <si>
-    <t>a-e</t>
-  </si>
-  <si>
     <t>alge, r-f-g</t>
   </si>
   <si>
@@ -702,166 +876,13 @@
     <t>sequ, alge</t>
   </si>
   <si>
-    <t>b-c</t>
-  </si>
-  <si>
     <t>a-f</t>
   </si>
   <si>
-    <t>alge, quad</t>
-  </si>
-  <si>
-    <t>inte, trig</t>
-  </si>
-  <si>
-    <t>b-d</t>
-  </si>
-  <si>
-    <t>lens, m-q</t>
-  </si>
-  <si>
-    <t>d-e</t>
-  </si>
-  <si>
-    <t>s-e</t>
-  </si>
-  <si>
-    <t>e-q, w-t-m</t>
-  </si>
-  <si>
-    <t>s-l-h, h-t</t>
-  </si>
-  <si>
-    <t>e-f</t>
-  </si>
-  <si>
-    <t>quan, forc, mome</t>
-  </si>
-  <si>
-    <t>e-c, elec</t>
-  </si>
-  <si>
-    <t>s-h-c, s-l-h</t>
-  </si>
-  <si>
-    <t>mome, forc</t>
-  </si>
-  <si>
-    <t>w-e-p, moti, mome</t>
-  </si>
-  <si>
-    <t>g-l, n-o-h</t>
-  </si>
-  <si>
-    <t>refr, t-i-r</t>
-  </si>
-  <si>
-    <t>e-q, w-e-p</t>
-  </si>
-  <si>
-    <t>a-b-s, mole</t>
-  </si>
-  <si>
-    <t>c-e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>n-m, redo</t>
-  </si>
-  <si>
-    <t>n-m, peri</t>
-  </si>
-  <si>
-    <t>d-f</t>
-  </si>
-  <si>
-    <t>meta, n-m</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>mole, reac</t>
-  </si>
-  <si>
-    <t>reac, m-s</t>
-  </si>
-  <si>
-    <t>redo, meta</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>a-b-s, wate, s-b</t>
-  </si>
-  <si>
-    <t>r-o-r, ener</t>
-  </si>
-  <si>
-    <t>r-o-r, meta</t>
-  </si>
-  <si>
-    <t>meta, peri</t>
-  </si>
-  <si>
-    <t>meta, mole</t>
-  </si>
-  <si>
-    <t>intro, reac</t>
-  </si>
-  <si>
-    <t>drug, r-g-e</t>
-  </si>
-  <si>
-    <t>tran, dise</t>
-  </si>
-  <si>
-    <t>c-d, repr</t>
-  </si>
-  <si>
-    <t>grow, repr</t>
-  </si>
-  <si>
-    <t>grow, move, tran</t>
-  </si>
-  <si>
-    <t>nutr, home</t>
-  </si>
-  <si>
-    <t>envi, f-r, v-e-s</t>
-  </si>
-  <si>
-    <t>gene, nutr, dise</t>
-  </si>
-  <si>
-    <t>biod, r-g-e</t>
-  </si>
-  <si>
-    <t>excr, home</t>
-  </si>
-  <si>
-    <t>dise, home</t>
-  </si>
-  <si>
-    <t>gene,</t>
-  </si>
-  <si>
-    <t>gene, v-e-s</t>
-  </si>
-  <si>
-    <t>move, i-n-s</t>
-  </si>
-  <si>
-    <t>repr, excr</t>
-  </si>
-  <si>
-    <t>home, nutr</t>
+    <t>meas, comp</t>
+  </si>
+  <si>
+    <t>s-s, alge</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1964,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="28.14"/>
+    <col customWidth="1" min="6" max="6" width="29.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1968,10 +1989,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="5">
         <v>2.0</v>
@@ -1983,312 +2004,312 @@
         <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
         <v>1.0</v>
       </c>
-      <c r="C3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2.0</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5">
         <v>1.0</v>
       </c>
-      <c r="C4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2.0</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B5" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="5">
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B6" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="5">
         <v>2.0</v>
       </c>
       <c r="D6" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B7" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="5">
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B8" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="5">
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B9" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="5">
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B10" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" s="5">
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B11" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="5">
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B12" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" s="5">
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B13" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" s="5">
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="5">
         <v>1.0</v>
       </c>
-      <c r="C14" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8.0</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="5">
         <v>1.0</v>
       </c>
-      <c r="C15" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>8.0</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="5">
         <v>1.0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>9.0</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>210</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B17" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C17" s="5">
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -2297,18 +2318,18 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -2317,18 +2338,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -2337,18 +2358,18 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -2357,18 +2378,18 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -2377,18 +2398,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -2397,18 +2418,18 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -2417,18 +2438,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -2437,18 +2458,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -2457,18 +2478,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -2477,18 +2498,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -2497,18 +2518,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -2517,18 +2538,18 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B30" s="5">
         <v>0.0</v>
@@ -2537,18 +2558,18 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -2557,18 +2578,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -2577,18 +2598,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -2597,18 +2618,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -2617,18 +2638,18 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -2637,18 +2658,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2019.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -2657,18 +2678,18 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>95</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -2680,15 +2701,15 @@
         <v>1.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -2697,18 +2718,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -2717,18 +2738,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -2740,15 +2761,15 @@
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -2763,12 +2784,12 @@
         <v>211</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -2777,18 +2798,18 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -2800,15 +2821,15 @@
         <v>5.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -2820,15 +2841,15 @@
         <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B45" s="5">
         <v>0.0</v>
@@ -2840,15 +2861,15 @@
         <v>6.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B46" s="5">
         <v>0.0</v>
@@ -2857,18 +2878,18 @@
         <v>2.0</v>
       </c>
       <c r="D46" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>2018.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -2877,18 +2898,18 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="5">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>2018.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -2897,18 +2918,18 @@
         <v>2.0</v>
       </c>
       <c r="D48" s="5">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>2018.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -2917,18 +2938,18 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>2018.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B50" s="5">
         <v>0.0</v>
@@ -2937,18 +2958,18 @@
         <v>2.0</v>
       </c>
       <c r="D50" s="5">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -2957,18 +2978,18 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -2977,18 +2998,18 @@
         <v>2.0</v>
       </c>
       <c r="D52" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B53" s="5">
         <v>0.0</v>
@@ -2997,18 +3018,18 @@
         <v>2.0</v>
       </c>
       <c r="D53" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -3017,18 +3038,18 @@
         <v>2.0</v>
       </c>
       <c r="D54" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -3037,18 +3058,18 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B56" s="5">
         <v>0.0</v>
@@ -3057,18 +3078,18 @@
         <v>2.0</v>
       </c>
       <c r="D56" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B57" s="5">
         <v>0.0</v>
@@ -3077,18 +3098,18 @@
         <v>2.0</v>
       </c>
       <c r="D57" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B58" s="5">
         <v>0.0</v>
@@ -3097,38 +3118,38 @@
         <v>2.0</v>
       </c>
       <c r="D58" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B59" s="5">
         <v>0.0</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="6">
         <v>2.0</v>
       </c>
       <c r="D59" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>210</v>
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B60" s="5">
         <v>0.0</v>
@@ -3137,18 +3158,18 @@
         <v>2.0</v>
       </c>
       <c r="D60" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>213</v>
+        <v>2.0</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B61" s="5">
         <v>0.0</v>
@@ -3157,18 +3178,18 @@
         <v>2.0</v>
       </c>
       <c r="D61" s="5">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B62" s="5">
         <v>0.0</v>
@@ -3177,18 +3198,18 @@
         <v>2.0</v>
       </c>
       <c r="D62" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>211</v>
+        <v>3.0</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B63" s="5">
         <v>0.0</v>
@@ -3197,18 +3218,18 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="5">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B64" s="5">
         <v>0.0</v>
@@ -3217,18 +3238,18 @@
         <v>2.0</v>
       </c>
       <c r="D64" s="5">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B65" s="5">
         <v>0.0</v>
@@ -3237,18 +3258,18 @@
         <v>2.0</v>
       </c>
       <c r="D65" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>208</v>
+        <v>4.0</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B66" s="5">
         <v>0.0</v>
@@ -3257,18 +3278,18 @@
         <v>2.0</v>
       </c>
       <c r="D66" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>211</v>
+        <v>5.0</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B67" s="5">
         <v>0.0</v>
@@ -3277,253 +3298,13 @@
         <v>2.0</v>
       </c>
       <c r="D67" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C68" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D68" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C69" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D69" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C70" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D70" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C71" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D71" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C72" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D72" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C73" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D73" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C74" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D74" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C75" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D75" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C76" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D76" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C77" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D77" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C78" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D78" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C79" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D79" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +3344,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B2" s="5">
         <v>0.0</v>
@@ -3575,15 +3356,15 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B3" s="5">
         <v>0.0</v>
@@ -3595,15 +3376,15 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B4" s="5">
         <v>0.0</v>
@@ -3615,15 +3396,15 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B5" s="5">
         <v>0.0</v>
@@ -3632,18 +3413,18 @@
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B6" s="5">
         <v>0.0</v>
@@ -3655,15 +3436,15 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B7" s="5">
         <v>0.0</v>
@@ -3672,18 +3453,18 @@
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B8" s="5">
         <v>0.0</v>
@@ -3692,18 +3473,18 @@
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B9" s="5">
         <v>0.0</v>
@@ -3712,18 +3493,18 @@
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B10" s="5">
         <v>0.0</v>
@@ -3732,18 +3513,18 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B11" s="5">
         <v>0.0</v>
@@ -3752,18 +3533,18 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B12" s="5">
         <v>0.0</v>
@@ -3772,18 +3553,18 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B13" s="5">
         <v>0.0</v>
@@ -3792,18 +3573,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -3812,18 +3593,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -3832,13 +3613,13 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -3852,13 +3633,13 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17">
@@ -3872,18 +3653,18 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -3895,15 +3676,15 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -3912,18 +3693,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -3932,18 +3713,18 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -3952,18 +3733,18 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -3972,18 +3753,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -3992,18 +3773,18 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -4012,18 +3793,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -4032,18 +3813,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -4052,18 +3833,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -4072,18 +3853,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -4092,18 +3873,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -4112,13 +3893,13 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -4132,13 +3913,13 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>210</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -4152,18 +3933,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -4172,18 +3953,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -4192,18 +3973,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -4215,15 +3996,15 @@
         <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -4232,18 +4013,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -4255,15 +4036,15 @@
         <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -4272,18 +4053,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -4292,18 +4073,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -4312,18 +4093,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -4332,18 +4113,18 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -4352,18 +4133,18 @@
         <v>2.0</v>
       </c>
       <c r="D41" s="5">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -4372,18 +4153,18 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -4392,18 +4173,18 @@
         <v>2.0</v>
       </c>
       <c r="D43" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -4412,13 +4193,13 @@
         <v>2.0</v>
       </c>
       <c r="D44" s="5">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -4432,13 +4213,13 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -4452,18 +4233,18 @@
         <v>2.0</v>
       </c>
       <c r="D46" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -4472,18 +4253,18 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -4492,18 +4273,18 @@
         <v>2.0</v>
       </c>
       <c r="D48" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -4512,18 +4293,18 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B50" s="5">
         <v>0.0</v>
@@ -4532,18 +4313,18 @@
         <v>2.0</v>
       </c>
       <c r="D50" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -4552,18 +4333,18 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>208</v>
+        <v>2.0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -4572,18 +4353,18 @@
         <v>2.0</v>
       </c>
       <c r="D52" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>208</v>
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B53" s="5">
         <v>0.0</v>
@@ -4592,18 +4373,18 @@
         <v>2.0</v>
       </c>
       <c r="D53" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>208</v>
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -4612,18 +4393,18 @@
         <v>2.0</v>
       </c>
       <c r="D54" s="5">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>57</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -4632,18 +4413,18 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>228</v>
+        <v>4.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B56" s="5">
         <v>0.0</v>
@@ -4652,13 +4433,13 @@
         <v>2.0</v>
       </c>
       <c r="D56" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>210</v>
+        <v>5.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
@@ -4672,13 +4453,13 @@
         <v>2.0</v>
       </c>
       <c r="D57" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
@@ -4692,13 +4473,13 @@
         <v>2.0</v>
       </c>
       <c r="D58" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59">
@@ -4712,13 +4493,13 @@
         <v>2.0</v>
       </c>
       <c r="D59" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -4732,18 +4513,18 @@
         <v>2.0</v>
       </c>
       <c r="D60" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B61" s="5">
         <v>0.0</v>
@@ -4752,18 +4533,18 @@
         <v>2.0</v>
       </c>
       <c r="D61" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B62" s="5">
         <v>0.0</v>
@@ -4772,18 +4553,18 @@
         <v>2.0</v>
       </c>
       <c r="D62" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B63" s="5">
         <v>0.0</v>
@@ -4792,18 +4573,18 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>208</v>
+        <v>1.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B64" s="5">
         <v>0.0</v>
@@ -4812,18 +4593,18 @@
         <v>2.0</v>
       </c>
       <c r="D64" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E64" s="6" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B65" s="5">
         <v>0.0</v>
@@ -4832,18 +4613,18 @@
         <v>2.0</v>
       </c>
       <c r="D65" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>208</v>
+        <v>2.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B66" s="5">
         <v>0.0</v>
@@ -4852,18 +4633,18 @@
         <v>2.0</v>
       </c>
       <c r="D66" s="5">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B67" s="5">
         <v>0.0</v>
@@ -4872,18 +4653,18 @@
         <v>2.0</v>
       </c>
       <c r="D67" s="5">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>212</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B68" s="5">
         <v>0.0</v>
@@ -4892,18 +4673,18 @@
         <v>2.0</v>
       </c>
       <c r="D68" s="5">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B69" s="5">
         <v>0.0</v>
@@ -4912,13 +4693,393 @@
         <v>2.0</v>
       </c>
       <c r="D69" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="E69" s="6" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>107</v>
+      <c r="F78" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4970,10 +5131,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
@@ -4990,7 +5151,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>183</v>
@@ -5010,7 +5171,7 @@
         <v>2.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>199</v>
@@ -5030,7 +5191,7 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>201</v>
@@ -5050,10 +5211,10 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
@@ -5070,10 +5231,10 @@
         <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
@@ -5090,7 +5251,7 @@
         <v>4.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>145</v>
@@ -5110,7 +5271,7 @@
         <v>5.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>45</v>
@@ -5130,7 +5291,7 @@
         <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>65</v>
@@ -5150,7 +5311,7 @@
         <v>6.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>79</v>
@@ -5170,7 +5331,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>196</v>
@@ -5190,7 +5351,7 @@
         <v>2.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>157</v>
@@ -5210,7 +5371,7 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>169</v>
@@ -5230,7 +5391,7 @@
         <v>3.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>201</v>
@@ -5250,7 +5411,7 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>65</v>
@@ -5270,7 +5431,7 @@
         <v>5.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>151</v>
@@ -5290,10 +5451,10 @@
         <v>5.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19">
@@ -5310,7 +5471,7 @@
         <v>6.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>183</v>
@@ -5330,7 +5491,7 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>201</v>
@@ -5350,7 +5511,7 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>199</v>
@@ -5370,10 +5531,10 @@
         <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
@@ -5390,7 +5551,7 @@
         <v>2.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>65</v>
@@ -5410,7 +5571,7 @@
         <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>73</v>
@@ -5430,7 +5591,7 @@
         <v>3.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>145</v>
@@ -5450,7 +5611,7 @@
         <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>139</v>
@@ -5470,7 +5631,7 @@
         <v>4.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>169</v>
@@ -5490,7 +5651,7 @@
         <v>4.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>157</v>
@@ -5510,10 +5671,10 @@
         <v>5.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
@@ -5530,7 +5691,7 @@
         <v>5.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>189</v>
@@ -5550,7 +5711,7 @@
         <v>6.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>119</v>
@@ -5570,7 +5731,7 @@
         <v>6.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>83</v>
@@ -5590,7 +5751,7 @@
         <v>1.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>201</v>
@@ -5610,7 +5771,7 @@
         <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>145</v>
@@ -5630,7 +5791,7 @@
         <v>2.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>119</v>
@@ -5650,10 +5811,10 @@
         <v>2.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -5670,7 +5831,7 @@
         <v>3.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>189</v>
@@ -5690,7 +5851,7 @@
         <v>3.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>191</v>
@@ -5710,7 +5871,7 @@
         <v>4.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>65</v>
@@ -5730,10 +5891,10 @@
         <v>4.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41">
@@ -5750,7 +5911,7 @@
         <v>5.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>113</v>
@@ -5770,7 +5931,7 @@
         <v>5.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>133</v>
@@ -5790,7 +5951,7 @@
         <v>6.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>183</v>
@@ -5810,9 +5971,9 @@
         <v>1.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5829,11 +5990,11 @@
       <c r="D45" s="5">
         <v>1.0</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>238</v>
+      <c r="E45" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46">
@@ -5850,7 +6011,7 @@
         <v>2.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>83</v>
@@ -5870,10 +6031,10 @@
         <v>2.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>243</v>
+        <v>209</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="48">
@@ -5890,7 +6051,7 @@
         <v>3.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>133</v>
@@ -5910,10 +6071,10 @@
         <v>3.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>244</v>
+        <v>209</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="50">
@@ -5930,7 +6091,7 @@
         <v>4.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>179</v>
@@ -5950,10 +6111,10 @@
         <v>4.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>245</v>
+        <v>209</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="52">
@@ -5970,7 +6131,7 @@
         <v>5.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>83</v>
@@ -5990,10 +6151,10 @@
         <v>5.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54">
@@ -6009,10 +6170,210 @@
       <c r="D54" s="5">
         <v>6.0</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>208</v>
+      <c r="E54" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="F54" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6053,7 +6414,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B2" s="5">
         <v>0.0</v>
@@ -6065,15 +6426,15 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B3" s="5">
         <v>0.0</v>
@@ -6085,15 +6446,15 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B4" s="5">
         <v>0.0</v>
@@ -6105,15 +6466,15 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B5" s="5">
         <v>0.0</v>
@@ -6122,18 +6483,18 @@
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B6" s="5">
         <v>0.0</v>
@@ -6145,15 +6506,15 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B7" s="5">
         <v>0.0</v>
@@ -6162,18 +6523,18 @@
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B8" s="5">
         <v>0.0</v>
@@ -6182,18 +6543,18 @@
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>251</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B9" s="5">
         <v>0.0</v>
@@ -6202,18 +6563,18 @@
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B10" s="5">
         <v>0.0</v>
@@ -6222,18 +6583,18 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B11" s="5">
         <v>0.0</v>
@@ -6242,18 +6603,18 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B12" s="5">
         <v>0.0</v>
@@ -6262,18 +6623,18 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B13" s="5">
         <v>0.0</v>
@@ -6282,18 +6643,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -6302,18 +6663,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -6322,13 +6683,13 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -6342,13 +6703,13 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -6362,18 +6723,18 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -6385,15 +6746,15 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -6402,18 +6763,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -6422,18 +6783,18 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -6442,18 +6803,18 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -6462,18 +6823,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -6482,18 +6843,18 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>256</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -6502,18 +6863,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -6522,18 +6883,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -6542,18 +6903,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -6562,18 +6923,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -6582,18 +6943,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -6602,13 +6963,13 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>257</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -6622,13 +6983,13 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -6642,18 +7003,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>210</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -6662,18 +7023,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -6682,18 +7043,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -6705,15 +7066,15 @@
         <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -6722,18 +7083,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -6745,15 +7106,15 @@
         <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -6762,18 +7123,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -6782,18 +7143,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -6802,18 +7163,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -6822,18 +7183,18 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -6842,18 +7203,18 @@
         <v>2.0</v>
       </c>
       <c r="D41" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -6862,18 +7223,18 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -6882,18 +7243,18 @@
         <v>2.0</v>
       </c>
       <c r="D43" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -6902,13 +7263,13 @@
         <v>2.0</v>
       </c>
       <c r="D44" s="5">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -6922,13 +7283,13 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -6942,18 +7303,18 @@
         <v>2.0</v>
       </c>
       <c r="D46" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -6962,18 +7323,18 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -6982,18 +7343,18 @@
         <v>2.0</v>
       </c>
       <c r="D48" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -7002,18 +7363,18 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B50" s="5">
         <v>0.0</v>
@@ -7022,18 +7383,18 @@
         <v>2.0</v>
       </c>
       <c r="D50" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -7042,18 +7403,18 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -7062,18 +7423,18 @@
         <v>2.0</v>
       </c>
       <c r="D52" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B53" s="5">
         <v>0.0</v>
@@ -7082,18 +7443,18 @@
         <v>2.0</v>
       </c>
       <c r="D53" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -7102,18 +7463,18 @@
         <v>2.0</v>
       </c>
       <c r="D54" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -7122,18 +7483,18 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B56" s="5">
         <v>0.0</v>
@@ -7142,13 +7503,13 @@
         <v>2.0</v>
       </c>
       <c r="D56" s="5">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
@@ -7162,13 +7523,13 @@
         <v>2.0</v>
       </c>
       <c r="D57" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -7182,13 +7543,13 @@
         <v>2.0</v>
       </c>
       <c r="D58" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
@@ -7202,13 +7563,13 @@
         <v>2.0</v>
       </c>
       <c r="D59" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -7222,38 +7583,38 @@
         <v>2.0</v>
       </c>
       <c r="D60" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B61" s="5">
         <v>0.0</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>2.0</v>
       </c>
       <c r="D61" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>261</v>
+        <v>208</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B62" s="5">
         <v>0.0</v>
@@ -7262,18 +7623,18 @@
         <v>2.0</v>
       </c>
       <c r="D62" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>262</v>
+        <v>209</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B63" s="5">
         <v>0.0</v>
@@ -7282,18 +7643,18 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B64" s="5">
         <v>0.0</v>
@@ -7302,18 +7663,18 @@
         <v>2.0</v>
       </c>
       <c r="D64" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E64" s="6" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>263</v>
+      <c r="F64" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B65" s="5">
         <v>0.0</v>
@@ -7322,18 +7683,18 @@
         <v>2.0</v>
       </c>
       <c r="D65" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>143</v>
+        <v>6.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B66" s="5">
         <v>0.0</v>
@@ -7342,18 +7703,18 @@
         <v>2.0</v>
       </c>
       <c r="D66" s="5">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B67" s="5">
         <v>0.0</v>
@@ -7362,18 +7723,18 @@
         <v>2.0</v>
       </c>
       <c r="D67" s="5">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>264</v>
+      <c r="F67" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B68" s="5">
         <v>0.0</v>
@@ -7382,18 +7743,18 @@
         <v>2.0</v>
       </c>
       <c r="D68" s="5">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B69" s="5">
         <v>0.0</v>
@@ -7402,13 +7763,13 @@
         <v>2.0</v>
       </c>
       <c r="D69" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>228</v>
+        <v>8.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
@@ -7422,13 +7783,13 @@
         <v>2.0</v>
       </c>
       <c r="D70" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -7442,13 +7803,13 @@
         <v>2.0</v>
       </c>
       <c r="D71" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -7462,13 +7823,13 @@
         <v>2.0</v>
       </c>
       <c r="D72" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>208</v>
+        <v>2.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
@@ -7482,13 +7843,13 @@
         <v>2.0</v>
       </c>
       <c r="D73" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
@@ -7502,13 +7863,13 @@
         <v>2.0</v>
       </c>
       <c r="D74" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75">
@@ -7522,13 +7883,133 @@
         <v>2.0</v>
       </c>
       <c r="D75" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D77" s="5">
         <v>6.0</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>71</v>
+      <c r="E77" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7546,7 +8027,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="29.29"/>
+    <col customWidth="1" min="6" max="6" width="28.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7571,10 +8052,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B2" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="5">
         <v>2.0</v>
@@ -7586,312 +8067,312 @@
         <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B3" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="5">
         <v>2.0</v>
       </c>
       <c r="D3" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B4" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="5">
         <v>2.0</v>
       </c>
       <c r="D4" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B5" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="5">
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B6" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="5">
         <v>2.0</v>
       </c>
       <c r="D6" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B7" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="5">
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B8" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="5">
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B9" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="5">
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>266</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B10" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="5">
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B11" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="5">
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B12" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="5">
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B13" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" s="5">
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B14" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="5">
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B15" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="5">
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>270</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B16" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="5">
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B17" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C17" s="5">
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -7900,18 +8381,18 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -7920,18 +8401,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>141</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -7940,18 +8421,18 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -7960,18 +8441,18 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -7980,18 +8461,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -8000,18 +8481,18 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -8020,18 +8501,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>21</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -8040,18 +8521,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>272</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -8060,18 +8541,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -8080,18 +8561,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -8100,18 +8581,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -8120,18 +8601,18 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B30" s="5">
         <v>0.0</v>
@@ -8140,18 +8621,18 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -8160,18 +8641,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -8180,18 +8661,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -8200,18 +8681,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -8220,18 +8701,18 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -8240,18 +8721,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2014.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -8260,18 +8741,18 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>274</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -8283,15 +8764,15 @@
         <v>1.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -8300,18 +8781,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -8320,18 +8801,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -8343,15 +8824,15 @@
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -8366,12 +8847,12 @@
         <v>208</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -8380,18 +8861,18 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>277</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -8403,15 +8884,15 @@
         <v>5.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -8423,15 +8904,15 @@
         <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B45" s="5">
         <v>0.0</v>
@@ -8443,15 +8924,15 @@
         <v>6.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>2014.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B46" s="5">
         <v>0.0</v>
@@ -8460,18 +8941,18 @@
         <v>2.0</v>
       </c>
       <c r="D46" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6">
-        <v>2013.0</v>
+      <c r="A47" s="5">
+        <v>2018.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -8480,198 +8961,198 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="5">
         <v>1.0</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="B48" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C48" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="E51" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="5">
         <v>1.0</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="B49" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C49" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="B50" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C50" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D50" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="B51" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C51" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="E52" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="5">
         <v>3.0</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="B52" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C52" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="E55" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="5">
         <v>3.0</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="B53" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C53" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D53" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="B54" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C54" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D54" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="B55" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C55" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D55" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="B56" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C56" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D56" s="5">
-        <v>5.0</v>
-      </c>
       <c r="E56" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>2013.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B57" s="5">
         <v>0.0</v>
@@ -8680,18 +9161,18 @@
         <v>2.0</v>
       </c>
       <c r="D57" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>2013.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B58" s="5">
         <v>0.0</v>
@@ -8700,13 +9181,833 @@
         <v>2.0</v>
       </c>
       <c r="D58" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="5">
         <v>6.0</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>99</v>
+      <c r="E59" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D91" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D92" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D93" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D94" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D95" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D97" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D98" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D99" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/CSEC Prep.xlsx
+++ b/CSEC Prep.xlsx
@@ -4,11 +4,11 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Syllabus" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Biology" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Chemistry" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Physics" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Additional Mathematics" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Mathematics" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="chemistry" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="biology" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="physics" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="add_maths" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="mathematics" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,21 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="289">
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>Additional Mathematics</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Physics</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="302">
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>add_maths</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>physics</t>
   </si>
   <si>
     <t>Code</t>
@@ -297,7 +297,7 @@
     <t>Electrochemistry</t>
   </si>
   <si>
-    <t>press</t>
+    <t>pres</t>
   </si>
   <si>
     <t>Pressure</t>
@@ -648,16 +648,103 @@
     <t>b</t>
   </si>
   <si>
+    <t>a-b-s, m-c-v</t>
+  </si>
+  <si>
+    <t>c-e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>a-b</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
+    <t>n-m, redo</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>n-m, peri</t>
+  </si>
+  <si>
     <t>a-c</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>a-b</t>
+    <t>d-f</t>
+  </si>
+  <si>
+    <t>meta, n-m</t>
+  </si>
+  <si>
+    <t>a-e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>m-c-v, reac</t>
+  </si>
+  <si>
+    <t>b-c</t>
+  </si>
+  <si>
+    <t>reac, m-s</t>
+  </si>
+  <si>
+    <t>redo, meta</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a-b-s, wate, s-b</t>
+  </si>
+  <si>
+    <t>r-o-r, ener</t>
+  </si>
+  <si>
+    <t>r-o-r, meta</t>
+  </si>
+  <si>
+    <t>meta, peri</t>
+  </si>
+  <si>
+    <t>meta, m-c-v</t>
+  </si>
+  <si>
+    <t>intro, reac</t>
+  </si>
+  <si>
+    <t>b-d</t>
+  </si>
+  <si>
+    <t>r-o-r, m-c-v</t>
+  </si>
+  <si>
+    <t>r-o-r, a-b-s, m-c-v</t>
+  </si>
+  <si>
+    <t>elec, redo</t>
+  </si>
+  <si>
+    <t>e-g</t>
+  </si>
+  <si>
+    <t>intro, reac, q-a</t>
+  </si>
+  <si>
+    <t>a-b-s, peri, s-b</t>
+  </si>
+  <si>
+    <t>a-d</t>
   </si>
   <si>
     <t>drug, r-g-e</t>
@@ -666,9 +753,6 @@
     <t>tran, dise</t>
   </si>
   <si>
-    <t>b-c</t>
-  </si>
-  <si>
     <t>c-d, repr</t>
   </si>
   <si>
@@ -684,18 +768,12 @@
     <t>envi, f-r, v-e-s</t>
   </si>
   <si>
-    <t>b-d</t>
-  </si>
-  <si>
     <t>gene, nutr, dise</t>
   </si>
   <si>
     <t>biod, r-g-e</t>
   </si>
   <si>
-    <t>a-d</t>
-  </si>
-  <si>
     <t>excr, home</t>
   </si>
   <si>
@@ -708,9 +786,6 @@
     <t>gene, v-e-s</t>
   </si>
   <si>
-    <t>d-f</t>
-  </si>
-  <si>
     <t>move, i-n-s</t>
   </si>
   <si>
@@ -720,64 +795,13 @@
     <t>home, nutr</t>
   </si>
   <si>
-    <t>a-b-s, m-c-v</t>
-  </si>
-  <si>
-    <t>c-e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>n-m, redo</t>
-  </si>
-  <si>
-    <t>n-m, peri</t>
-  </si>
-  <si>
-    <t>meta, n-m</t>
-  </si>
-  <si>
-    <t>a-e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>m-c-v, reac</t>
-  </si>
-  <si>
-    <t>reac, m-s</t>
-  </si>
-  <si>
-    <t>redo, meta</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>a-b-s, wate, s-b</t>
-  </si>
-  <si>
-    <t>r-o-r, ener</t>
-  </si>
-  <si>
-    <t>r-o-r, meta</t>
-  </si>
-  <si>
-    <t>meta, peri</t>
-  </si>
-  <si>
-    <t>meta, m-c-v</t>
-  </si>
-  <si>
-    <t>intro, reac</t>
-  </si>
-  <si>
-    <t>r-o-r, m-c-v</t>
+    <t>a-i</t>
+  </si>
+  <si>
+    <t>r-ge</t>
+  </si>
+  <si>
+    <t>biod, n-c</t>
   </si>
   <si>
     <t>lens, m-q</t>
@@ -834,12 +858,24 @@
     <t>circ, e-q</t>
   </si>
   <si>
+    <t>e-q, circ</t>
+  </si>
+  <si>
+    <t>s-h-c, s-l-h, w-e-p</t>
+  </si>
+  <si>
+    <t>w-t-m, e-w</t>
+  </si>
+  <si>
     <t>alge, quad</t>
   </si>
   <si>
     <t>inte, trig</t>
   </si>
   <si>
+    <t>stat, prob</t>
+  </si>
+  <si>
     <t>alge, meas</t>
   </si>
   <si>
@@ -882,7 +918,10 @@
     <t>meas, comp</t>
   </si>
   <si>
-    <t>s-s, alge</t>
+    <t>comp, alge</t>
+  </si>
+  <si>
+    <t>r-f-g, meas</t>
   </si>
 </sst>
 </file>
@@ -1963,9 +2002,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="6" max="6" width="29.29"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2004,7 +2040,7 @@
         <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
@@ -2024,7 +2060,7 @@
         <v>209</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -2041,10 +2077,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -2058,13 +2094,13 @@
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -2078,13 +2114,13 @@
         <v>2.0</v>
       </c>
       <c r="D6" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -2098,13 +2134,13 @@
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -2118,13 +2154,13 @@
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
@@ -2138,13 +2174,13 @@
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -2158,13 +2194,13 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -2178,13 +2214,13 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -2198,13 +2234,13 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -2218,18 +2254,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -2238,18 +2274,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -2258,18 +2294,18 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B16" s="5">
         <v>0.0</v>
@@ -2278,18 +2314,18 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B17" s="5">
         <v>0.0</v>
@@ -2298,13 +2334,13 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -2318,13 +2354,13 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -2338,13 +2374,13 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -2358,13 +2394,13 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
@@ -2378,13 +2414,13 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -2398,13 +2434,13 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -2418,13 +2454,13 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>209</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
@@ -2438,13 +2474,13 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -2458,18 +2494,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -2478,18 +2514,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -2498,18 +2534,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -2518,18 +2554,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -2538,18 +2574,18 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B30" s="5">
         <v>0.0</v>
@@ -2558,18 +2594,18 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -2578,13 +2614,13 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
@@ -2598,13 +2634,13 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -2618,13 +2654,13 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
@@ -2638,13 +2674,13 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -2658,18 +2694,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -2678,18 +2714,18 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>224</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -2698,18 +2734,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -2718,18 +2754,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -2741,15 +2777,15 @@
         <v>3.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -2761,15 +2797,15 @@
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -2781,15 +2817,15 @@
         <v>4.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -2804,12 +2840,12 @@
         <v>208</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -2824,12 +2860,12 @@
         <v>209</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -2841,15 +2877,15 @@
         <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B45" s="5">
         <v>0.0</v>
@@ -2858,18 +2894,18 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B46" s="5">
         <v>0.0</v>
@@ -2881,15 +2917,15 @@
         <v>6.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -2901,15 +2937,15 @@
         <v>1.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -2921,15 +2957,15 @@
         <v>1.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -2938,18 +2974,18 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B50" s="5">
         <v>0.0</v>
@@ -2961,15 +2997,15 @@
         <v>2.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -2978,18 +3014,18 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -3001,15 +3037,15 @@
         <v>3.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B53" s="5">
         <v>0.0</v>
@@ -3021,15 +3057,15 @@
         <v>3.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -3041,15 +3077,15 @@
         <v>4.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -3058,18 +3094,18 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B56" s="5">
         <v>0.0</v>
@@ -3081,15 +3117,15 @@
         <v>5.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B57" s="5">
         <v>0.0</v>
@@ -3098,18 +3134,18 @@
         <v>2.0</v>
       </c>
       <c r="D57" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B58" s="5">
         <v>0.0</v>
@@ -3118,38 +3154,38 @@
         <v>2.0</v>
       </c>
       <c r="D58" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5">
-        <v>2012.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B59" s="5">
         <v>0.0</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>2.0</v>
       </c>
       <c r="D59" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>225</v>
+        <v>6.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>2012.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B60" s="5">
         <v>0.0</v>
@@ -3158,18 +3194,18 @@
         <v>2.0</v>
       </c>
       <c r="D60" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>211</v>
+        <v>6.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>2012.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B61" s="5">
         <v>0.0</v>
@@ -3178,18 +3214,18 @@
         <v>2.0</v>
       </c>
       <c r="D61" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>2012.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B62" s="5">
         <v>0.0</v>
@@ -3198,18 +3234,18 @@
         <v>2.0</v>
       </c>
       <c r="D62" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>213</v>
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>2012.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B63" s="5">
         <v>0.0</v>
@@ -3218,18 +3254,18 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>2012.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B64" s="5">
         <v>0.0</v>
@@ -3238,18 +3274,18 @@
         <v>2.0</v>
       </c>
       <c r="D64" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>2012.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B65" s="5">
         <v>0.0</v>
@@ -3258,18 +3294,18 @@
         <v>2.0</v>
       </c>
       <c r="D65" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>211</v>
+        <v>2.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>2012.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B66" s="5">
         <v>0.0</v>
@@ -3278,33 +3314,693 @@
         <v>2.0</v>
       </c>
       <c r="D66" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>225</v>
+        <v>2.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5">
         <v>2012.0</v>
       </c>
-      <c r="B67" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C67" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="B89" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D91" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D92" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D93" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D94" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D95" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D97" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D98" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D99" s="5">
         <v>6.0</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>141</v>
+      <c r="E99" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D100" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3321,6 +4017,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="29.29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -3359,7 +4058,7 @@
         <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -3379,7 +4078,7 @@
         <v>209</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -3396,10 +4095,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -3413,13 +4112,13 @@
         <v>2.0</v>
       </c>
       <c r="D5" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -3433,13 +4132,13 @@
         <v>2.0</v>
       </c>
       <c r="D6" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
@@ -3453,13 +4152,13 @@
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
@@ -3473,13 +4172,13 @@
         <v>2.0</v>
       </c>
       <c r="D8" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -3493,13 +4192,13 @@
         <v>2.0</v>
       </c>
       <c r="D9" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
@@ -3513,13 +4212,13 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11">
@@ -3533,13 +4232,13 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
@@ -3553,13 +4252,13 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13">
@@ -3573,18 +4272,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -3593,18 +4292,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -3613,18 +4312,18 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B16" s="5">
         <v>0.0</v>
@@ -3633,18 +4332,18 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B17" s="5">
         <v>0.0</v>
@@ -3653,13 +4352,13 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -3673,13 +4372,13 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -3693,13 +4392,13 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20">
@@ -3713,13 +4412,13 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
@@ -3733,13 +4432,13 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22">
@@ -3753,13 +4452,13 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -3773,13 +4472,13 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>209</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24">
@@ -3793,13 +4492,13 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -3813,18 +4512,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -3833,18 +4532,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -3853,18 +4552,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -3873,18 +4572,18 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -3893,18 +4592,18 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B30" s="5">
         <v>0.0</v>
@@ -3913,18 +4612,18 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -3933,13 +4632,13 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -3953,13 +4652,13 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
@@ -3973,13 +4672,13 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -3993,13 +4692,13 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -4013,18 +4712,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -4033,18 +4732,18 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>117</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -4053,18 +4752,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -4073,18 +4772,18 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -4096,15 +4795,15 @@
         <v>3.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -4116,15 +4815,15 @@
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -4136,15 +4835,15 @@
         <v>4.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -4159,12 +4858,12 @@
         <v>208</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -4179,12 +4878,12 @@
         <v>209</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -4196,15 +4895,15 @@
         <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B45" s="5">
         <v>0.0</v>
@@ -4213,18 +4912,18 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B46" s="5">
         <v>0.0</v>
@@ -4236,15 +4935,15 @@
         <v>6.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -4256,15 +4955,15 @@
         <v>1.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -4276,15 +4975,15 @@
         <v>1.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -4293,18 +4992,18 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B50" s="5">
         <v>0.0</v>
@@ -4316,15 +5015,15 @@
         <v>2.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -4333,18 +5032,18 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -4356,15 +5055,15 @@
         <v>3.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B53" s="5">
         <v>0.0</v>
@@ -4376,15 +5075,15 @@
         <v>3.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -4396,15 +5095,15 @@
         <v>4.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -4413,18 +5112,18 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B56" s="5">
         <v>0.0</v>
@@ -4436,15 +5135,15 @@
         <v>5.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B57" s="5">
         <v>0.0</v>
@@ -4453,18 +5152,18 @@
         <v>2.0</v>
       </c>
       <c r="D57" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>125</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B58" s="5">
         <v>0.0</v>
@@ -4473,18 +5172,18 @@
         <v>2.0</v>
       </c>
       <c r="D58" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5">
-        <v>2015.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B59" s="5">
         <v>0.0</v>
@@ -4493,18 +5192,18 @@
         <v>2.0</v>
       </c>
       <c r="D59" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>2015.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B60" s="5">
         <v>0.0</v>
@@ -4513,18 +5212,18 @@
         <v>2.0</v>
       </c>
       <c r="D60" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>2014.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B61" s="5">
         <v>0.0</v>
@@ -4533,18 +5232,18 @@
         <v>2.0</v>
       </c>
       <c r="D61" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>2014.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B62" s="5">
         <v>0.0</v>
@@ -4553,18 +5252,18 @@
         <v>2.0</v>
       </c>
       <c r="D62" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>2014.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B63" s="5">
         <v>0.0</v>
@@ -4573,18 +5272,18 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>2014.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B64" s="5">
         <v>0.0</v>
@@ -4593,18 +5292,18 @@
         <v>2.0</v>
       </c>
       <c r="D64" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>2014.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B65" s="5">
         <v>0.0</v>
@@ -4613,18 +5312,18 @@
         <v>2.0</v>
       </c>
       <c r="D65" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>2014.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B66" s="5">
         <v>0.0</v>
@@ -4633,18 +5332,18 @@
         <v>2.0</v>
       </c>
       <c r="D66" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5">
-        <v>2014.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B67" s="5">
         <v>0.0</v>
@@ -4653,18 +5352,18 @@
         <v>2.0</v>
       </c>
       <c r="D67" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5">
-        <v>2014.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B68" s="5">
         <v>0.0</v>
@@ -4673,18 +5372,18 @@
         <v>2.0</v>
       </c>
       <c r="D68" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5">
-        <v>2014.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B69" s="5">
         <v>0.0</v>
@@ -4693,18 +5392,18 @@
         <v>2.0</v>
       </c>
       <c r="D69" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5">
-        <v>2014.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B70" s="5">
         <v>0.0</v>
@@ -4713,18 +5412,18 @@
         <v>2.0</v>
       </c>
       <c r="D70" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5">
-        <v>2014.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B71" s="5">
         <v>0.0</v>
@@ -4733,18 +5432,18 @@
         <v>2.0</v>
       </c>
       <c r="D71" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>209</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5">
-        <v>2014.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B72" s="5">
         <v>0.0</v>
@@ -4753,18 +5452,18 @@
         <v>2.0</v>
       </c>
       <c r="D72" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5">
-        <v>2014.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B73" s="5">
         <v>0.0</v>
@@ -4773,18 +5472,18 @@
         <v>2.0</v>
       </c>
       <c r="D73" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5">
-        <v>2014.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B74" s="5">
         <v>0.0</v>
@@ -4793,18 +5492,18 @@
         <v>2.0</v>
       </c>
       <c r="D74" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>216</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5">
-        <v>2014.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B75" s="5">
         <v>0.0</v>
@@ -4813,18 +5512,18 @@
         <v>2.0</v>
       </c>
       <c r="D75" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5">
-        <v>2013.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B76" s="5">
         <v>0.0</v>
@@ -4833,18 +5532,18 @@
         <v>2.0</v>
       </c>
       <c r="D76" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5">
-        <v>2013.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B77" s="5">
         <v>0.0</v>
@@ -4853,233 +5552,13 @@
         <v>2.0</v>
       </c>
       <c r="D77" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>209</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C78" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C79" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D79" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C80" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D80" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C81" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D81" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C82" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D82" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C83" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D83" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C84" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D84" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C85" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D85" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C86" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D86" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C87" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D87" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B88" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C88" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D88" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5131,10 +5610,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
@@ -5151,7 +5630,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>183</v>
@@ -5211,10 +5690,10 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
@@ -5231,10 +5710,10 @@
         <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -5291,7 +5770,7 @@
         <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>65</v>
@@ -5331,7 +5810,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>196</v>
@@ -5371,7 +5850,7 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>169</v>
@@ -5391,7 +5870,7 @@
         <v>3.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>201</v>
@@ -5454,7 +5933,7 @@
         <v>209</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19">
@@ -5491,7 +5970,7 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>201</v>
@@ -5511,7 +5990,7 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>199</v>
@@ -5534,7 +6013,7 @@
         <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23">
@@ -5571,7 +6050,7 @@
         <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>73</v>
@@ -5611,7 +6090,7 @@
         <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>139</v>
@@ -5651,7 +6130,7 @@
         <v>4.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>157</v>
@@ -5674,7 +6153,7 @@
         <v>208</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
@@ -5751,7 +6230,7 @@
         <v>1.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>201</v>
@@ -5811,10 +6290,10 @@
         <v>2.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
@@ -5894,7 +6373,7 @@
         <v>209</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41">
@@ -5971,7 +6450,7 @@
         <v>1.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>119</v>
@@ -5991,10 +6470,10 @@
         <v>1.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
@@ -6034,7 +6513,7 @@
         <v>209</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48">
@@ -6074,7 +6553,7 @@
         <v>209</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
@@ -6114,7 +6593,7 @@
         <v>209</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52">
@@ -6154,7 +6633,7 @@
         <v>209</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54">
@@ -6171,7 +6650,7 @@
         <v>6.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>201</v>
@@ -6191,7 +6670,7 @@
         <v>1.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>45</v>
@@ -6211,10 +6690,10 @@
         <v>1.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57">
@@ -6234,7 +6713,7 @@
         <v>208</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58">
@@ -6254,7 +6733,7 @@
         <v>209</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59">
@@ -6274,7 +6753,7 @@
         <v>208</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60">
@@ -6294,7 +6773,7 @@
         <v>209</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61">
@@ -6354,7 +6833,7 @@
         <v>209</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64">
@@ -6375,6 +6854,266 @@
       </c>
       <c r="F64" s="5" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6449,7 +7188,7 @@
         <v>209</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
@@ -6466,7 +7205,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>39</v>
@@ -6546,7 +7285,7 @@
         <v>3.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>67</v>
@@ -6566,7 +7305,7 @@
         <v>4.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>77</v>
@@ -6626,7 +7365,7 @@
         <v>6.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>97</v>
@@ -6746,7 +7485,7 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>39</v>
@@ -6806,7 +7545,7 @@
         <v>2.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>19</v>
@@ -6846,7 +7585,7 @@
         <v>3.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>67</v>
@@ -6866,7 +7605,7 @@
         <v>4.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>77</v>
@@ -6906,7 +7645,7 @@
         <v>6.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>97</v>
@@ -6946,7 +7685,7 @@
         <v>7.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>121</v>
@@ -7006,7 +7745,7 @@
         <v>1.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>39</v>
@@ -7066,7 +7805,7 @@
         <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>49</v>
@@ -7126,7 +7865,7 @@
         <v>4.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>77</v>
@@ -7146,7 +7885,7 @@
         <v>5.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>87</v>
@@ -7169,7 +7908,7 @@
         <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40">
@@ -7186,7 +7925,7 @@
         <v>6.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>97</v>
@@ -7246,7 +7985,7 @@
         <v>7.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>121</v>
@@ -7306,7 +8045,7 @@
         <v>1.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>39</v>
@@ -7346,7 +8085,7 @@
         <v>2.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>49</v>
@@ -7406,7 +8145,7 @@
         <v>4.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>77</v>
@@ -7426,7 +8165,7 @@
         <v>5.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>87</v>
@@ -7446,7 +8185,7 @@
         <v>6.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>97</v>
@@ -7486,7 +8225,7 @@
         <v>7.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>121</v>
@@ -7526,7 +8265,7 @@
         <v>1.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>9</v>
@@ -7546,7 +8285,7 @@
         <v>1.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>39</v>
@@ -7566,7 +8305,7 @@
         <v>2.0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>19</v>
@@ -7586,7 +8325,7 @@
         <v>2.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>49</v>
@@ -7646,7 +8385,7 @@
         <v>4.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>77</v>
@@ -7666,7 +8405,7 @@
         <v>5.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>87</v>
@@ -7686,7 +8425,7 @@
         <v>6.0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>97</v>
@@ -7746,7 +8485,7 @@
         <v>7.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>121</v>
@@ -7786,7 +8525,7 @@
         <v>1.0</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>9</v>
@@ -7846,10 +8585,10 @@
         <v>2.0</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74">
@@ -7886,7 +8625,7 @@
         <v>4.0</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>77</v>
@@ -7926,7 +8665,7 @@
         <v>6.0</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>97</v>
@@ -7986,7 +8725,7 @@
         <v>7.0</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>57</v>
@@ -8009,6 +8748,266 @@
         <v>213</v>
       </c>
       <c r="F81" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D91" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D92" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D93" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D94" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -8064,7 +9063,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -8084,7 +9083,7 @@
         <v>2.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>9</v>
@@ -8104,7 +9103,7 @@
         <v>2.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
@@ -8124,7 +9123,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>85</v>
@@ -8204,7 +9203,7 @@
         <v>6.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>47</v>
@@ -8227,7 +9226,7 @@
         <v>208</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
@@ -8264,10 +9263,10 @@
         <v>7.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
@@ -8287,7 +9286,7 @@
         <v>208</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14">
@@ -8324,7 +9323,7 @@
         <v>8.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>47</v>
@@ -8364,7 +9363,7 @@
         <v>10.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>95</v>
@@ -8407,7 +9406,7 @@
         <v>209</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20">
@@ -8447,7 +9446,7 @@
         <v>209</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22">
@@ -8464,7 +9463,7 @@
         <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -8507,7 +9506,7 @@
         <v>209</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25">
@@ -8544,7 +9543,7 @@
         <v>4.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>75</v>
@@ -8564,7 +9563,7 @@
         <v>5.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>57</v>
@@ -8607,7 +9606,7 @@
         <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
@@ -8647,7 +9646,7 @@
         <v>208</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
@@ -8667,7 +9666,7 @@
         <v>209</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
@@ -8707,7 +9706,7 @@
         <v>209</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35">
@@ -8727,7 +9726,7 @@
         <v>208</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36">
@@ -8787,7 +9786,7 @@
         <v>209</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39">
@@ -8804,7 +9803,7 @@
         <v>2.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>9</v>
@@ -8887,7 +9886,7 @@
         <v>208</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44">
@@ -8944,10 +9943,10 @@
         <v>7.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
@@ -9064,7 +10063,7 @@
         <v>1.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>27</v>
@@ -9104,10 +10103,10 @@
         <v>2.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55">
@@ -9224,7 +10223,7 @@
         <v>7.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>57</v>
@@ -9244,10 +10243,10 @@
         <v>8.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62">
@@ -9324,7 +10323,7 @@
         <v>11.0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>95</v>
@@ -9364,7 +10363,7 @@
         <v>1.0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>27</v>
@@ -9384,7 +10383,7 @@
         <v>2.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>9</v>
@@ -9444,7 +10443,7 @@
         <v>4.0</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>47</v>
@@ -9504,7 +10503,7 @@
         <v>7.0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>57</v>
@@ -9604,7 +10603,7 @@
         <v>11.0</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>95</v>
@@ -9684,10 +10683,10 @@
         <v>2.0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84">
@@ -9704,7 +10703,7 @@
         <v>2.0</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>9</v>
@@ -9764,7 +10763,7 @@
         <v>4.0</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>75</v>
@@ -9807,7 +10806,7 @@
         <v>209</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90">
@@ -9824,7 +10823,7 @@
         <v>5.0</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>47</v>
@@ -9884,7 +10883,7 @@
         <v>7.0</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>57</v>
@@ -9907,7 +10906,7 @@
         <v>208</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95">
@@ -9927,7 +10926,7 @@
         <v>209</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96">
@@ -10007,6 +11006,326 @@
         <v>213</v>
       </c>
       <c r="F99" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D102" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D104" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D106" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D107" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D108" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D109" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D110" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D111" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D112" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D113" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C114" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D114" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C115" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D115" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>95</v>
       </c>
     </row>

--- a/CSEC Prep.xlsx
+++ b/CSEC Prep.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="chemistry" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="biology" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="physics" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="add_maths" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="add-maths" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="mathematics" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="311">
   <si>
     <t>mathematics</t>
   </si>
   <si>
-    <t>add_maths</t>
+    <t>add-maths</t>
   </si>
   <si>
     <t>biology</t>
@@ -573,10 +573,10 @@
     <t>Lenses</t>
   </si>
   <si>
-    <t>e-c</t>
-  </si>
-  <si>
-    <t>Electrical Conductors</t>
+    <t>c-e</t>
+  </si>
+  <si>
+    <t>Current Electricity</t>
   </si>
   <si>
     <t>e-s</t>
@@ -651,9 +651,6 @@
     <t>a-b-s, m-c-v</t>
   </si>
   <si>
-    <t>c-e</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -747,6 +744,12 @@
     <t>a-d</t>
   </si>
   <si>
+    <t>elec, m-c-v</t>
+  </si>
+  <si>
+    <t>poly, reac</t>
+  </si>
+  <si>
     <t>drug, r-g-e</t>
   </si>
   <si>
@@ -804,6 +807,9 @@
     <t>biod, n-c</t>
   </si>
   <si>
+    <t>e-f</t>
+  </si>
+  <si>
     <t>lens, m-q</t>
   </si>
   <si>
@@ -819,13 +825,10 @@
     <t>s-l-h, h-t</t>
   </si>
   <si>
-    <t>e-f</t>
-  </si>
-  <si>
     <t>quan, forc, mome</t>
   </si>
   <si>
-    <t>e-c, elec</t>
+    <t>c-e, elec</t>
   </si>
   <si>
     <t>s-h-c, s-l-h</t>
@@ -867,6 +870,21 @@
     <t>w-t-m, e-w</t>
   </si>
   <si>
+    <t>moti, mome</t>
+  </si>
+  <si>
+    <t>m-q, moti</t>
+  </si>
+  <si>
+    <t>cond, circ, e-s</t>
+  </si>
+  <si>
+    <t>c-e, w-t-m</t>
+  </si>
+  <si>
+    <t>e-q, tran</t>
+  </si>
+  <si>
     <t>alge, quad</t>
   </si>
   <si>
@@ -876,6 +894,9 @@
     <t>stat, prob</t>
   </si>
   <si>
+    <t>stas</t>
+  </si>
+  <si>
     <t>alge, meas</t>
   </si>
   <si>
@@ -922,6 +943,12 @@
   </si>
   <si>
     <t>r-f-g, meas</t>
+  </si>
+  <si>
+    <t>g-t, meas</t>
+  </si>
+  <si>
+    <t>r-f-h</t>
   </si>
 </sst>
 </file>
@@ -1902,10 +1929,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2077,7 +2104,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>101</v>
@@ -2097,7 +2124,7 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>173</v>
@@ -2117,7 +2144,7 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>43</v>
@@ -2137,10 +2164,10 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -2157,10 +2184,10 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9">
@@ -2177,7 +2204,7 @@
         <v>3.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>117</v>
@@ -2197,7 +2224,7 @@
         <v>3.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>125</v>
@@ -2217,7 +2244,7 @@
         <v>4.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>91</v>
@@ -2277,7 +2304,7 @@
         <v>5.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>131</v>
@@ -2320,7 +2347,7 @@
         <v>209</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
@@ -2337,7 +2364,7 @@
         <v>6.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>167</v>
@@ -2357,7 +2384,7 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>101</v>
@@ -2377,7 +2404,7 @@
         <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>111</v>
@@ -2397,7 +2424,7 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>155</v>
@@ -2417,7 +2444,7 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>101</v>
@@ -2460,7 +2487,7 @@
         <v>209</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
@@ -2477,7 +2504,7 @@
         <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>91</v>
@@ -2517,7 +2544,7 @@
         <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>125</v>
@@ -2537,7 +2564,7 @@
         <v>4.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>71</v>
@@ -2580,7 +2607,7 @@
         <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
@@ -2597,7 +2624,7 @@
         <v>5.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>125</v>
@@ -2617,7 +2644,7 @@
         <v>6.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>143</v>
@@ -2700,7 +2727,7 @@
         <v>209</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36">
@@ -2757,7 +2784,7 @@
         <v>3.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>125</v>
@@ -2777,7 +2804,7 @@
         <v>3.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>117</v>
@@ -2797,7 +2824,7 @@
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>125</v>
@@ -2817,7 +2844,7 @@
         <v>4.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>53</v>
@@ -2917,7 +2944,7 @@
         <v>6.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>143</v>
@@ -2977,7 +3004,7 @@
         <v>1.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>173</v>
@@ -3017,7 +3044,7 @@
         <v>2.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>53</v>
@@ -3037,7 +3064,7 @@
         <v>3.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>117</v>
@@ -3057,7 +3084,7 @@
         <v>3.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>131</v>
@@ -3080,7 +3107,7 @@
         <v>208</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55">
@@ -3157,7 +3184,7 @@
         <v>5.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>71</v>
@@ -3197,7 +3224,7 @@
         <v>6.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>167</v>
@@ -3220,7 +3247,7 @@
         <v>208</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62">
@@ -3240,7 +3267,7 @@
         <v>209</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63">
@@ -3257,7 +3284,7 @@
         <v>1.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>173</v>
@@ -3280,7 +3307,7 @@
         <v>208</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65">
@@ -3317,7 +3344,7 @@
         <v>2.0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>53</v>
@@ -3337,10 +3364,10 @@
         <v>2.0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68">
@@ -3377,10 +3404,10 @@
         <v>3.0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70">
@@ -3437,7 +3464,7 @@
         <v>5.0</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>143</v>
@@ -3477,7 +3504,7 @@
         <v>6.0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>149</v>
@@ -3497,7 +3524,7 @@
         <v>6.0</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>71</v>
@@ -3557,7 +3584,7 @@
         <v>1.0</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>23</v>
@@ -3577,7 +3604,7 @@
         <v>1.0</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>173</v>
@@ -3597,7 +3624,7 @@
         <v>2.0</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>43</v>
@@ -3617,7 +3644,7 @@
         <v>2.0</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>53</v>
@@ -3657,7 +3684,7 @@
         <v>3.0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>131</v>
@@ -3700,7 +3727,7 @@
         <v>209</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86">
@@ -3717,7 +3744,7 @@
         <v>4.0</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>143</v>
@@ -3737,7 +3764,7 @@
         <v>5.0</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>91</v>
@@ -3757,7 +3784,7 @@
         <v>6.0</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>149</v>
@@ -3780,7 +3807,7 @@
         <v>208</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90">
@@ -3817,7 +3844,7 @@
         <v>2.0</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>91</v>
@@ -3837,10 +3864,10 @@
         <v>2.0</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93">
@@ -3857,7 +3884,7 @@
         <v>2.0</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>91</v>
@@ -3880,7 +3907,7 @@
         <v>208</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95">
@@ -3900,7 +3927,7 @@
         <v>209</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96">
@@ -3940,7 +3967,7 @@
         <v>209</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98">
@@ -3957,7 +3984,7 @@
         <v>5.0</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>143</v>
@@ -3977,7 +4004,7 @@
         <v>6.0</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>161</v>
@@ -3997,10 +4024,250 @@
         <v>6.0</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D104" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D106" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D107" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D108" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D109" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D110" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D111" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D112" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4095,7 +4362,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>79</v>
@@ -4115,7 +4382,7 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>51</v>
@@ -4135,7 +4402,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>135</v>
@@ -4155,7 +4422,7 @@
         <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>159</v>
@@ -4175,7 +4442,7 @@
         <v>4.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>109</v>
@@ -4195,10 +4462,10 @@
         <v>4.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -4218,7 +4485,7 @@
         <v>208</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11">
@@ -4235,7 +4502,7 @@
         <v>5.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>147</v>
@@ -4258,7 +4525,7 @@
         <v>208</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13">
@@ -4275,7 +4542,7 @@
         <v>6.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>141</v>
@@ -4298,7 +4565,7 @@
         <v>208</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15">
@@ -4318,7 +4585,7 @@
         <v>209</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16">
@@ -4335,7 +4602,7 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>69</v>
@@ -4355,7 +4622,7 @@
         <v>2.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>11</v>
@@ -4375,7 +4642,7 @@
         <v>2.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>165</v>
@@ -4395,7 +4662,7 @@
         <v>3.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>141</v>
@@ -4478,7 +4745,7 @@
         <v>209</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
@@ -4518,7 +4785,7 @@
         <v>209</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
@@ -4538,7 +4805,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -4555,7 +4822,7 @@
         <v>1.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>69</v>
@@ -4635,7 +4902,7 @@
         <v>3.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>135</v>
@@ -4655,7 +4922,7 @@
         <v>4.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>141</v>
@@ -4715,10 +4982,10 @@
         <v>6.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
@@ -4738,7 +5005,7 @@
         <v>208</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -4755,7 +5022,7 @@
         <v>1.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>21</v>
@@ -4775,7 +5042,7 @@
         <v>2.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>79</v>
@@ -4798,7 +5065,7 @@
         <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
@@ -4818,7 +5085,7 @@
         <v>209</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41">
@@ -4835,7 +5102,7 @@
         <v>4.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>31</v>
@@ -4858,7 +5125,7 @@
         <v>208</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43">
@@ -4878,7 +5145,7 @@
         <v>209</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44">
@@ -4895,7 +5162,7 @@
         <v>5.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>165</v>
@@ -4955,7 +5222,7 @@
         <v>1.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>165</v>
@@ -4975,7 +5242,7 @@
         <v>1.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>79</v>
@@ -5015,10 +5282,10 @@
         <v>2.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51">
@@ -5058,7 +5325,7 @@
         <v>209</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53">
@@ -5095,7 +5362,7 @@
         <v>4.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>147</v>
@@ -5115,7 +5382,7 @@
         <v>5.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>41</v>
@@ -5135,7 +5402,7 @@
         <v>5.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>31</v>
@@ -5158,7 +5425,7 @@
         <v>208</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58">
@@ -5175,7 +5442,7 @@
         <v>6.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>99</v>
@@ -5195,7 +5462,7 @@
         <v>1.0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>69</v>
@@ -5215,7 +5482,7 @@
         <v>2.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>115</v>
@@ -5235,7 +5502,7 @@
         <v>2.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>147</v>
@@ -5255,7 +5522,7 @@
         <v>3.0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>51</v>
@@ -5275,7 +5542,7 @@
         <v>3.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>61</v>
@@ -5295,7 +5562,7 @@
         <v>3.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>51</v>
@@ -5315,7 +5582,7 @@
         <v>4.0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>159</v>
@@ -5335,7 +5602,7 @@
         <v>5.0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>147</v>
@@ -5355,7 +5622,7 @@
         <v>6.0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>141</v>
@@ -5375,7 +5642,7 @@
         <v>1.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>79</v>
@@ -5395,10 +5662,10 @@
         <v>2.0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70">
@@ -5438,7 +5705,7 @@
         <v>209</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72">
@@ -5475,7 +5742,7 @@
         <v>4.0</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>61</v>
@@ -5495,7 +5762,7 @@
         <v>4.0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>69</v>
@@ -5515,7 +5782,7 @@
         <v>5.0</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>89</v>
@@ -5559,6 +5826,266 @@
       </c>
       <c r="F77" s="5" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5610,10 +6137,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
@@ -5630,7 +6157,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>183</v>
@@ -5690,10 +6217,10 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7">
@@ -5710,10 +6237,10 @@
         <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
@@ -5730,7 +6257,7 @@
         <v>4.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>145</v>
@@ -5750,7 +6277,7 @@
         <v>5.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>45</v>
@@ -5770,7 +6297,7 @@
         <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>65</v>
@@ -5790,7 +6317,7 @@
         <v>6.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>79</v>
@@ -5810,7 +6337,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>196</v>
@@ -5830,7 +6357,7 @@
         <v>2.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>157</v>
@@ -5850,7 +6377,7 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>169</v>
@@ -5870,7 +6397,7 @@
         <v>3.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>201</v>
@@ -5890,7 +6417,7 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>65</v>
@@ -5933,7 +6460,7 @@
         <v>209</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19">
@@ -5950,7 +6477,7 @@
         <v>6.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>183</v>
@@ -5970,7 +6497,7 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>201</v>
@@ -5990,7 +6517,7 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>199</v>
@@ -6013,7 +6540,7 @@
         <v>208</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23">
@@ -6050,7 +6577,7 @@
         <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>73</v>
@@ -6090,7 +6617,7 @@
         <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>139</v>
@@ -6130,7 +6657,7 @@
         <v>4.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>157</v>
@@ -6152,8 +6679,8 @@
       <c r="E29" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>269</v>
+      <c r="F29" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -6230,7 +6757,7 @@
         <v>1.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>201</v>
@@ -6290,10 +6817,10 @@
         <v>2.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
@@ -6373,7 +6900,7 @@
         <v>209</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41">
@@ -6430,7 +6957,7 @@
         <v>6.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>183</v>
@@ -6450,7 +6977,7 @@
         <v>1.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>119</v>
@@ -6470,10 +6997,10 @@
         <v>1.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
@@ -6513,7 +7040,7 @@
         <v>209</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
@@ -6553,7 +7080,7 @@
         <v>209</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50">
@@ -6593,7 +7120,7 @@
         <v>209</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52">
@@ -6633,7 +7160,7 @@
         <v>209</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54">
@@ -6650,7 +7177,7 @@
         <v>6.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>201</v>
@@ -6670,7 +7197,7 @@
         <v>1.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>45</v>
@@ -6690,10 +7217,10 @@
         <v>1.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57">
@@ -6713,7 +7240,7 @@
         <v>208</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58">
@@ -6733,7 +7260,7 @@
         <v>209</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59">
@@ -6753,7 +7280,7 @@
         <v>208</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60">
@@ -6773,7 +7300,7 @@
         <v>209</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61">
@@ -6790,7 +7317,7 @@
         <v>4.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>73</v>
@@ -6812,7 +7339,7 @@
       <c r="E62" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6833,7 +7360,7 @@
         <v>209</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64">
@@ -6850,7 +7377,7 @@
         <v>6.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>201</v>
@@ -6870,7 +7397,7 @@
         <v>1.0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>189</v>
@@ -6890,10 +7417,10 @@
         <v>1.0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67">
@@ -6950,7 +7477,7 @@
         <v>3.0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>55</v>
@@ -6970,7 +7497,7 @@
         <v>3.0</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>35</v>
@@ -6990,7 +7517,7 @@
         <v>3.0</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>93</v>
@@ -7053,7 +7580,7 @@
         <v>208</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75">
@@ -7073,7 +7600,7 @@
         <v>209</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76">
@@ -7093,7 +7620,7 @@
         <v>208</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77">
@@ -7110,10 +7637,230 @@
         <v>6.0</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7188,7 +7935,7 @@
         <v>209</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
@@ -7205,7 +7952,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>39</v>
@@ -7285,7 +8032,7 @@
         <v>3.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>67</v>
@@ -7305,7 +8052,7 @@
         <v>4.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>77</v>
@@ -7325,7 +8072,7 @@
         <v>5.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>87</v>
@@ -7345,7 +8092,7 @@
         <v>6.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>97</v>
@@ -7365,7 +8112,7 @@
         <v>6.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>97</v>
@@ -7485,7 +8232,7 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>39</v>
@@ -7545,7 +8292,7 @@
         <v>2.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>19</v>
@@ -7565,7 +8312,7 @@
         <v>3.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>59</v>
@@ -7585,7 +8332,7 @@
         <v>3.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>67</v>
@@ -7605,7 +8352,7 @@
         <v>4.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>77</v>
@@ -7625,7 +8372,7 @@
         <v>5.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>87</v>
@@ -7645,7 +8392,7 @@
         <v>6.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>97</v>
@@ -7685,7 +8432,7 @@
         <v>7.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>121</v>
@@ -7705,7 +8452,7 @@
         <v>8.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>107</v>
@@ -7725,7 +8472,7 @@
         <v>1.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>9</v>
@@ -7745,7 +8492,7 @@
         <v>1.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>39</v>
@@ -7787,8 +8534,8 @@
       <c r="E33" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>39</v>
+      <c r="F33" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -7805,7 +8552,7 @@
         <v>2.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>49</v>
@@ -7865,7 +8612,7 @@
         <v>4.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>77</v>
@@ -7885,7 +8632,7 @@
         <v>5.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>87</v>
@@ -7908,7 +8655,7 @@
         <v>208</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
@@ -7925,7 +8672,7 @@
         <v>6.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>97</v>
@@ -7985,7 +8732,7 @@
         <v>7.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>121</v>
@@ -8005,7 +8752,7 @@
         <v>8.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>107</v>
@@ -8045,7 +8792,7 @@
         <v>1.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>39</v>
@@ -8085,7 +8832,7 @@
         <v>2.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>49</v>
@@ -8145,7 +8892,7 @@
         <v>4.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>77</v>
@@ -8165,7 +8912,7 @@
         <v>5.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>87</v>
@@ -8185,7 +8932,7 @@
         <v>6.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>97</v>
@@ -8225,7 +8972,7 @@
         <v>7.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>121</v>
@@ -8245,7 +8992,7 @@
         <v>8.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>107</v>
@@ -8265,7 +9012,7 @@
         <v>1.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>9</v>
@@ -8285,7 +9032,7 @@
         <v>1.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>39</v>
@@ -8305,7 +9052,7 @@
         <v>2.0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>19</v>
@@ -8325,7 +9072,7 @@
         <v>2.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>49</v>
@@ -8385,7 +9132,7 @@
         <v>4.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>77</v>
@@ -8405,7 +9152,7 @@
         <v>5.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>87</v>
@@ -8425,7 +9172,7 @@
         <v>6.0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>97</v>
@@ -8485,7 +9232,7 @@
         <v>7.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>121</v>
@@ -8505,7 +9252,7 @@
         <v>8.0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>107</v>
@@ -8525,7 +9272,7 @@
         <v>1.0</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>9</v>
@@ -8567,8 +9314,8 @@
       <c r="E72" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>39</v>
+      <c r="F72" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -8585,7 +9332,7 @@
         <v>2.0</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>49</v>
@@ -8605,7 +9352,7 @@
         <v>3.0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>59</v>
@@ -8625,7 +9372,7 @@
         <v>4.0</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>77</v>
@@ -8645,7 +9392,7 @@
         <v>5.0</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>87</v>
@@ -8665,7 +9412,7 @@
         <v>6.0</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>97</v>
@@ -8725,7 +9472,7 @@
         <v>7.0</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>57</v>
@@ -8745,7 +9492,7 @@
         <v>8.0</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>107</v>
@@ -8765,7 +9512,7 @@
         <v>1.0</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>9</v>
@@ -8785,7 +9532,7 @@
         <v>1.0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>39</v>
@@ -8827,8 +9574,8 @@
       <c r="E85" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>39</v>
+      <c r="F85" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -8845,7 +9592,7 @@
         <v>2.0</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>49</v>
@@ -8885,7 +9632,7 @@
         <v>3.0</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>67</v>
@@ -8905,7 +9652,7 @@
         <v>4.0</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>77</v>
@@ -8925,7 +9672,7 @@
         <v>5.0</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>87</v>
@@ -8945,7 +9692,7 @@
         <v>6.0</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>97</v>
@@ -8988,7 +9735,7 @@
         <v>209</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94">
@@ -9005,9 +9752,269 @@
         <v>8.0</v>
       </c>
       <c r="E94" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D98" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D99" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F99" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D100" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D101" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D102" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D103" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D104" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D106" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D107" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9063,7 +10070,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -9083,7 +10090,7 @@
         <v>2.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>9</v>
@@ -9103,7 +10110,7 @@
         <v>2.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
@@ -9123,7 +10130,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>85</v>
@@ -9143,7 +10150,7 @@
         <v>4.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>75</v>
@@ -9203,7 +10210,7 @@
         <v>6.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>47</v>
@@ -9226,7 +10233,7 @@
         <v>208</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11">
@@ -9263,10 +10270,10 @@
         <v>7.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
@@ -9286,7 +10293,7 @@
         <v>208</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14">
@@ -9323,7 +10330,7 @@
         <v>8.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>47</v>
@@ -9343,7 +10350,7 @@
         <v>9.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>85</v>
@@ -9363,7 +10370,7 @@
         <v>10.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>95</v>
@@ -9406,7 +10413,7 @@
         <v>209</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20">
@@ -9446,7 +10453,7 @@
         <v>209</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22">
@@ -9463,7 +10470,7 @@
         <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
@@ -9506,7 +10513,7 @@
         <v>209</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25">
@@ -9523,7 +10530,7 @@
         <v>4.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -9543,7 +10550,7 @@
         <v>4.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>75</v>
@@ -9563,7 +10570,7 @@
         <v>5.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>57</v>
@@ -9606,7 +10613,7 @@
         <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
@@ -9623,7 +10630,7 @@
         <v>7.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>17</v>
@@ -9646,7 +10653,7 @@
         <v>208</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
@@ -9666,7 +10673,7 @@
         <v>209</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
@@ -9706,7 +10713,7 @@
         <v>209</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
@@ -9726,7 +10733,7 @@
         <v>208</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
@@ -9786,7 +10793,7 @@
         <v>209</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
@@ -9803,7 +10810,7 @@
         <v>2.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>9</v>
@@ -9823,7 +10830,7 @@
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>85</v>
@@ -9886,7 +10893,7 @@
         <v>208</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44">
@@ -9923,7 +10930,7 @@
         <v>6.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>47</v>
@@ -9943,10 +10950,10 @@
         <v>7.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47">
@@ -10003,7 +11010,7 @@
         <v>9.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>85</v>
@@ -10023,7 +11030,7 @@
         <v>10.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>95</v>
@@ -10063,7 +11070,7 @@
         <v>1.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>27</v>
@@ -10083,7 +11090,7 @@
         <v>2.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>9</v>
@@ -10103,10 +11110,10 @@
         <v>2.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55">
@@ -10163,7 +11170,7 @@
         <v>4.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>75</v>
@@ -10183,7 +11190,7 @@
         <v>5.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>85</v>
@@ -10203,7 +11210,7 @@
         <v>6.0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>47</v>
@@ -10223,7 +11230,7 @@
         <v>7.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>57</v>
@@ -10243,10 +11250,10 @@
         <v>8.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62">
@@ -10303,7 +11310,7 @@
         <v>10.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>85</v>
@@ -10323,7 +11330,7 @@
         <v>11.0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>95</v>
@@ -10363,7 +11370,7 @@
         <v>1.0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>27</v>
@@ -10383,7 +11390,7 @@
         <v>2.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>9</v>
@@ -10443,7 +11450,7 @@
         <v>4.0</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>47</v>
@@ -10463,7 +11470,7 @@
         <v>5.0</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>85</v>
@@ -10483,7 +11490,7 @@
         <v>6.0</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>75</v>
@@ -10503,7 +11510,7 @@
         <v>7.0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>57</v>
@@ -10523,7 +11530,7 @@
         <v>8.0</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>105</v>
@@ -10583,7 +11590,7 @@
         <v>10.0</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>85</v>
@@ -10603,7 +11610,7 @@
         <v>11.0</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>95</v>
@@ -10663,7 +11670,7 @@
         <v>2.0</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>9</v>
@@ -10683,10 +11690,10 @@
         <v>2.0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84">
@@ -10703,7 +11710,7 @@
         <v>2.0</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>9</v>
@@ -10763,7 +11770,7 @@
         <v>4.0</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>75</v>
@@ -10806,7 +11813,7 @@
         <v>209</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90">
@@ -10823,7 +11830,7 @@
         <v>5.0</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>47</v>
@@ -10883,7 +11890,7 @@
         <v>7.0</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>57</v>
@@ -10926,7 +11933,7 @@
         <v>209</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96">
@@ -10983,7 +11990,7 @@
         <v>10.0</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>85</v>
@@ -11003,7 +12010,7 @@
         <v>11.0</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>95</v>
@@ -11023,7 +12030,7 @@
         <v>1.0</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>7</v>
@@ -11043,7 +12050,7 @@
         <v>1.0</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>27</v>
@@ -11066,7 +12073,7 @@
         <v>208</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103">
@@ -11083,7 +12090,7 @@
         <v>2.0</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>9</v>
@@ -11143,7 +12150,7 @@
         <v>4.0</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>47</v>
@@ -11163,7 +12170,7 @@
         <v>5.0</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>85</v>
@@ -11183,7 +12190,7 @@
         <v>6.0</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>75</v>
@@ -11203,7 +12210,7 @@
         <v>7.0</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>57</v>
@@ -11223,7 +12230,7 @@
         <v>8.0</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>105</v>
@@ -11246,7 +12253,7 @@
         <v>153</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112">
@@ -11286,7 +12293,7 @@
         <v>209</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114">
@@ -11303,7 +12310,7 @@
         <v>10.0</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>85</v>
@@ -11323,9 +12330,349 @@
         <v>11.0</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F115" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B116" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C116" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B117" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B118" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C118" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D118" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B119" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C119" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D119" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B120" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C120" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D120" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B121" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C121" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D121" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B122" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C122" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D122" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B123" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C123" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D123" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B124" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C124" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D124" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B125" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C125" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D125" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B126" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C126" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D126" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B127" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C127" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D127" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B128" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D128" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B129" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C129" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D129" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B130" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C130" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D130" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B131" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C131" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D131" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B132" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C132" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D132" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>95</v>
       </c>
     </row>

--- a/CSEC Prep.xlsx
+++ b/CSEC Prep.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="507">
   <si>
     <t>mathematics</t>
   </si>
@@ -1054,9 +1054,63 @@
     <t>g-w, defo</t>
   </si>
   <si>
+    <t>d-f</t>
+  </si>
+  <si>
+    <t>w-c, reli</t>
+  </si>
+  <si>
     <t>a-e</t>
   </si>
   <si>
+    <t>agri, w-c</t>
+  </si>
+  <si>
+    <t>c-c-l</t>
+  </si>
+  <si>
+    <t>poll, defo</t>
+  </si>
+  <si>
+    <t>poll, agri</t>
+  </si>
+  <si>
+    <t>d-e</t>
+  </si>
+  <si>
+    <t>f-i</t>
+  </si>
+  <si>
+    <t>vege, w-c</t>
+  </si>
+  <si>
+    <t>l-u-f, reli</t>
+  </si>
+  <si>
+    <t>h-i</t>
+  </si>
+  <si>
+    <t>water, weat</t>
+  </si>
+  <si>
+    <t>reli, popu, soil</t>
+  </si>
+  <si>
+    <t>econ, g-f</t>
+  </si>
+  <si>
+    <t>poll, m-d</t>
+  </si>
+  <si>
+    <t>poll, g-w</t>
+  </si>
+  <si>
+    <t>g-r, s-d-g, bear</t>
+  </si>
+  <si>
+    <t>popu, m-d</t>
+  </si>
+  <si>
     <t>i-o, c-s</t>
   </si>
   <si>
@@ -1105,9 +1159,6 @@
     <t>f-g</t>
   </si>
   <si>
-    <t>h-i</t>
-  </si>
-  <si>
     <t>a-f</t>
   </si>
   <si>
@@ -1144,9 +1195,6 @@
     <t>lens, m-q</t>
   </si>
   <si>
-    <t>d-e</t>
-  </si>
-  <si>
     <t>s-e</t>
   </si>
   <si>
@@ -1250,9 +1298,6 @@
   </si>
   <si>
     <t>n-m, peri</t>
-  </si>
-  <si>
-    <t>d-f</t>
   </si>
   <si>
     <t>meta, n-m</t>
@@ -2106,7 +2151,7 @@
       <c r="Q6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="T6" s="5" t="s">
@@ -2238,10 +2283,10 @@
       <c r="Q9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2282,10 +2327,10 @@
       <c r="Q10" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2326,7 +2371,7 @@
       <c r="Q11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="5" t="s">
         <v>131</v>
       </c>
       <c r="T11" s="6" t="s">
@@ -2370,10 +2415,10 @@
       <c r="Q12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="5" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2414,10 +2459,10 @@
       <c r="Q13" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2452,10 +2497,10 @@
       <c r="Q14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2490,10 +2535,10 @@
       <c r="Q15" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="5" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2522,10 +2567,10 @@
       <c r="Q16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2554,10 +2599,10 @@
       <c r="Q17" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2580,10 +2625,10 @@
       <c r="N18" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="5" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2606,10 +2651,10 @@
       <c r="N19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2632,10 +2677,10 @@
       <c r="N20" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2658,10 +2703,10 @@
       <c r="N21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2684,10 +2729,10 @@
       <c r="N22" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="T22" s="5" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2710,10 +2755,10 @@
       <c r="N23" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="S23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T23" s="5" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2724,10 +2769,10 @@
       <c r="N24" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="S24" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" s="5" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2752,10 +2797,10 @@
       <c r="N26" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="T26" s="5" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2766,10 +2811,10 @@
       <c r="N27" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="T27" s="5" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2780,10 +2825,10 @@
       <c r="N28" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="S28" s="6" t="s">
+      <c r="S28" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="T28" s="6" t="s">
+      <c r="T28" s="5" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2794,10 +2839,10 @@
       <c r="N29" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="S29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T29" s="6" t="s">
+      <c r="T29" s="5" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2935,7 +2980,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B2" s="18">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTUNIQUE(mathematics!A:A) - 1"),11.0)</f>
@@ -2962,26 +3007,26 @@
         <v>11</v>
       </c>
       <c r="H2" s="18">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTUNIQUE(geography!A:A) - 1"),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTUNIQUE(geography!A:A) - 1"),11.0)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -3281,7 +3326,7 @@
       <c r="E12" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3298,7 +3343,7 @@
       <c r="D13" s="5">
         <v>3.0</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>294</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -3315,13 +3360,13 @@
       <c r="C14" s="5">
         <v>2.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>3.0</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3335,13 +3380,13 @@
       <c r="C15" s="5">
         <v>2.0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>4.0</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3355,13 +3400,13 @@
       <c r="C16" s="5">
         <v>2.0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>4.0</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3375,13 +3420,13 @@
       <c r="C17" s="5">
         <v>2.0</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>4.0</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3395,13 +3440,13 @@
       <c r="C18" s="5">
         <v>2.0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1.0</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3415,13 +3460,13 @@
       <c r="C19" s="5">
         <v>2.0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>1.0</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3435,13 +3480,13 @@
       <c r="C20" s="5">
         <v>2.0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>1.0</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3455,13 +3500,13 @@
       <c r="C21" s="5">
         <v>2.0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>1.0</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3475,13 +3520,13 @@
       <c r="C22" s="5">
         <v>2.0</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>1.0</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3495,13 +3540,13 @@
       <c r="C23" s="5">
         <v>2.0</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>1.0</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3515,13 +3560,13 @@
       <c r="C24" s="5">
         <v>2.0</v>
       </c>
-      <c r="D24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3535,13 +3580,13 @@
       <c r="C25" s="5">
         <v>2.0</v>
       </c>
-      <c r="D25" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3555,13 +3600,13 @@
       <c r="C26" s="5">
         <v>2.0</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>3.0</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3575,13 +3620,13 @@
       <c r="C27" s="5">
         <v>2.0</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>3.0</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3595,13 +3640,13 @@
       <c r="C28" s="5">
         <v>2.0</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>4.0</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3615,13 +3660,13 @@
       <c r="C29" s="5">
         <v>2.0</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>4.0</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3635,13 +3680,13 @@
       <c r="C30" s="5">
         <v>2.0</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>1.0</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3655,13 +3700,13 @@
       <c r="C31" s="5">
         <v>2.0</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>1.0</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3675,13 +3720,13 @@
       <c r="C32" s="5">
         <v>2.0</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>1.0</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3695,13 +3740,13 @@
       <c r="C33" s="5">
         <v>2.0</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>1.0</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3715,13 +3760,13 @@
       <c r="C34" s="5">
         <v>2.0</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>1.0</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3735,13 +3780,13 @@
       <c r="C35" s="5">
         <v>2.0</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>1.0</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3755,13 +3800,13 @@
       <c r="C36" s="5">
         <v>2.0</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>1.0</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3775,13 +3820,13 @@
       <c r="C37" s="5">
         <v>2.0</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>1.0</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3795,13 +3840,13 @@
       <c r="C38" s="5">
         <v>2.0</v>
       </c>
-      <c r="D38" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3815,13 +3860,13 @@
       <c r="C39" s="5">
         <v>2.0</v>
       </c>
-      <c r="D39" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3835,13 +3880,13 @@
       <c r="C40" s="5">
         <v>2.0</v>
       </c>
-      <c r="D40" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3855,13 +3900,13 @@
       <c r="C41" s="5">
         <v>2.0</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>3.0</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3875,13 +3920,13 @@
       <c r="C42" s="5">
         <v>2.0</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>3.0</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3895,13 +3940,13 @@
       <c r="C43" s="5">
         <v>2.0</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>4.0</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3915,13 +3960,13 @@
       <c r="C44" s="5">
         <v>2.0</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>4.0</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3935,13 +3980,13 @@
       <c r="C45" s="5">
         <v>2.0</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>4.0</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3955,13 +4000,13 @@
       <c r="C46" s="5">
         <v>2.0</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>5.0</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3975,13 +4020,13 @@
       <c r="C47" s="5">
         <v>2.0</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>5.0</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3995,13 +4040,13 @@
       <c r="C48" s="5">
         <v>2.0</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>6.0</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4015,13 +4060,13 @@
       <c r="C49" s="5">
         <v>2.0</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>7.0</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4035,13 +4080,13 @@
       <c r="C50" s="5">
         <v>2.0</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>7.0</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4055,13 +4100,13 @@
       <c r="C51" s="5">
         <v>2.0</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>8.0</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4075,13 +4120,13 @@
       <c r="C52" s="5">
         <v>2.0</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>8.0</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4095,13 +4140,13 @@
       <c r="C53" s="5">
         <v>2.0</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>8.0</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4115,13 +4160,13 @@
       <c r="C54" s="5">
         <v>2.0</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>9.0</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4135,13 +4180,13 @@
       <c r="C55" s="5">
         <v>2.0</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>9.0</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4155,13 +4200,13 @@
       <c r="C56" s="5">
         <v>2.0</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>10.0</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4175,13 +4220,13 @@
       <c r="C57" s="5">
         <v>2.0</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>10.0</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4195,13 +4240,13 @@
       <c r="C58" s="5">
         <v>2.0</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>10.0</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4215,13 +4260,13 @@
       <c r="C59" s="5">
         <v>2.0</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>1.0</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4235,13 +4280,13 @@
       <c r="C60" s="5">
         <v>2.0</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>1.0</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4255,13 +4300,13 @@
       <c r="C61" s="5">
         <v>2.0</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>1.0</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4275,13 +4320,13 @@
       <c r="C62" s="5">
         <v>2.0</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>1.0</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4295,13 +4340,13 @@
       <c r="C63" s="5">
         <v>2.0</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>1.0</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="5" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4315,13 +4360,13 @@
       <c r="C64" s="5">
         <v>2.0</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>1.0</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4335,13 +4380,13 @@
       <c r="C65" s="5">
         <v>2.0</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>1.0</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="5" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4355,13 +4400,13 @@
       <c r="C66" s="5">
         <v>2.0</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>1.0</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4375,13 +4420,13 @@
       <c r="C67" s="5">
         <v>2.0</v>
       </c>
-      <c r="D67" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E67" s="6" t="s">
+      <c r="D67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="5" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4395,13 +4440,13 @@
       <c r="C68" s="5">
         <v>2.0</v>
       </c>
-      <c r="D68" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="D68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4415,13 +4460,13 @@
       <c r="C69" s="5">
         <v>2.0</v>
       </c>
-      <c r="D69" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="D69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4435,13 +4480,13 @@
       <c r="C70" s="5">
         <v>2.0</v>
       </c>
-      <c r="D70" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="D70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="5" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4455,13 +4500,13 @@
       <c r="C71" s="5">
         <v>2.0</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>3.0</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4475,13 +4520,13 @@
       <c r="C72" s="5">
         <v>2.0</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>3.0</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4495,13 +4540,13 @@
       <c r="C73" s="5">
         <v>2.0</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>4.0</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4515,13 +4560,13 @@
       <c r="C74" s="5">
         <v>2.0</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>4.0</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="5" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4535,13 +4580,13 @@
       <c r="C75" s="5">
         <v>2.0</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>5.0</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4555,13 +4600,13 @@
       <c r="C76" s="5">
         <v>2.0</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>6.0</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="5" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4575,13 +4620,13 @@
       <c r="C77" s="5">
         <v>2.0</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>6.0</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4595,13 +4640,13 @@
       <c r="C78" s="5">
         <v>2.0</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <v>6.0</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="5" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4615,13 +4660,13 @@
       <c r="C79" s="5">
         <v>2.0</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>7.0</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="5" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4635,13 +4680,13 @@
       <c r="C80" s="5">
         <v>2.0</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>7.0</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="5" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4655,10 +4700,10 @@
       <c r="C81" s="5">
         <v>2.0</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>7.0</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>295</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -4675,13 +4720,13 @@
       <c r="C82" s="5">
         <v>2.0</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>8.0</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="5" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4695,13 +4740,13 @@
       <c r="C83" s="5">
         <v>2.0</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>8.0</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4715,13 +4760,13 @@
       <c r="C84" s="5">
         <v>2.0</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>8.0</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="5" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4735,13 +4780,13 @@
       <c r="C85" s="5">
         <v>2.0</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <v>9.0</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="5" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4755,13 +4800,13 @@
       <c r="C86" s="5">
         <v>2.0</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <v>9.0</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4775,13 +4820,13 @@
       <c r="C87" s="5">
         <v>2.0</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>9.0</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4795,13 +4840,13 @@
       <c r="C88" s="5">
         <v>2.0</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="5">
         <v>10.0</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="5" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4815,13 +4860,13 @@
       <c r="C89" s="5">
         <v>2.0</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <v>10.0</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4835,13 +4880,13 @@
       <c r="C90" s="5">
         <v>2.0</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>10.0</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="5" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4855,13 +4900,13 @@
       <c r="C91" s="5">
         <v>2.0</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="5">
         <v>1.0</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4875,13 +4920,13 @@
       <c r="C92" s="5">
         <v>2.0</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="5">
         <v>1.0</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4895,13 +4940,13 @@
       <c r="C93" s="5">
         <v>2.0</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="5">
         <v>1.0</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4915,13 +4960,13 @@
       <c r="C94" s="5">
         <v>2.0</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="5">
         <v>1.0</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4935,13 +4980,13 @@
       <c r="C95" s="5">
         <v>2.0</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="5">
         <v>1.0</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4955,13 +5000,13 @@
       <c r="C96" s="5">
         <v>2.0</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="5">
         <v>1.0</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4975,13 +5020,13 @@
       <c r="C97" s="5">
         <v>2.0</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="5">
         <v>1.0</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4995,13 +5040,13 @@
       <c r="C98" s="5">
         <v>2.0</v>
       </c>
-      <c r="D98" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E98" s="6" t="s">
+      <c r="D98" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5015,13 +5060,13 @@
       <c r="C99" s="5">
         <v>2.0</v>
       </c>
-      <c r="D99" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E99" s="6" t="s">
+      <c r="D99" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="5" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5035,13 +5080,13 @@
       <c r="C100" s="5">
         <v>2.0</v>
       </c>
-      <c r="D100" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E100" s="6" t="s">
+      <c r="D100" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5055,13 +5100,13 @@
       <c r="C101" s="5">
         <v>2.0</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="5">
         <v>3.0</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5075,13 +5120,13 @@
       <c r="C102" s="5">
         <v>2.0</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="5">
         <v>3.0</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="5" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5095,13 +5140,13 @@
       <c r="C103" s="5">
         <v>2.0</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="5">
         <v>4.0</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5115,13 +5160,13 @@
       <c r="C104" s="5">
         <v>2.0</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="5">
         <v>4.0</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="5" t="s">
         <v>315</v>
       </c>
     </row>
@@ -5135,13 +5180,13 @@
       <c r="C105" s="5">
         <v>2.0</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="5">
         <v>5.0</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5155,13 +5200,13 @@
       <c r="C106" s="5">
         <v>2.0</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="5">
         <v>6.0</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="5" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5175,13 +5220,13 @@
       <c r="C107" s="5">
         <v>2.0</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="5">
         <v>6.0</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5195,10 +5240,10 @@
       <c r="C108" s="5">
         <v>2.0</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="5">
         <v>6.0</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="5" t="s">
         <v>295</v>
       </c>
       <c r="F108" s="6" t="s">
@@ -5215,13 +5260,13 @@
       <c r="C109" s="5">
         <v>2.0</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="5">
         <v>7.0</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="5" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5235,13 +5280,13 @@
       <c r="C110" s="5">
         <v>2.0</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="5">
         <v>8.0</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="5" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5255,13 +5300,13 @@
       <c r="C111" s="5">
         <v>2.0</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="5">
         <v>8.0</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5275,13 +5320,13 @@
       <c r="C112" s="5">
         <v>2.0</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="5">
         <v>8.0</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="5" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5295,10 +5340,10 @@
       <c r="C113" s="5">
         <v>2.0</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="5">
         <v>9.0</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="5" t="s">
         <v>293</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -5315,13 +5360,13 @@
       <c r="C114" s="5">
         <v>2.0</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="5">
         <v>9.0</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="5" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5335,13 +5380,13 @@
       <c r="C115" s="5">
         <v>2.0</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="5">
         <v>9.0</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="5" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5355,13 +5400,13 @@
       <c r="C116" s="5">
         <v>2.0</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="5">
         <v>10.0</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="5" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5375,13 +5420,13 @@
       <c r="C117" s="5">
         <v>2.0</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="5">
         <v>10.0</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="5" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5421,7 +5466,7 @@
       <c r="E119" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5498,7 +5543,7 @@
       <c r="D123" s="5">
         <v>1.0</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="5" t="s">
         <v>304</v>
       </c>
       <c r="F123" s="5" t="s">
@@ -5518,7 +5563,7 @@
       <c r="D124" s="5">
         <v>2.0</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="5" t="s">
         <v>317</v>
       </c>
       <c r="F124" s="5" t="s">
@@ -5535,13 +5580,13 @@
       <c r="C125" s="5">
         <v>2.0</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="5">
         <v>3.0</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F125" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5581,7 +5626,7 @@
       <c r="E127" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="F127" s="5" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5598,7 +5643,7 @@
       <c r="D128" s="5">
         <v>4.0</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="5" t="s">
         <v>302</v>
       </c>
       <c r="F128" s="5" t="s">
@@ -5798,7 +5843,7 @@
       <c r="D138" s="5">
         <v>8.0</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="5" t="s">
         <v>309</v>
       </c>
       <c r="F138" s="5" t="s">
@@ -5921,7 +5966,7 @@
       <c r="E144" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="F144" s="5" t="s">
         <v>339</v>
       </c>
     </row>
@@ -5958,7 +6003,7 @@
       <c r="D146" s="5">
         <v>1.0</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E146" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F146" s="5" t="s">
@@ -5978,7 +6023,7 @@
       <c r="D147" s="5">
         <v>2.0</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="5" t="s">
         <v>317</v>
       </c>
       <c r="F147" s="5" t="s">
@@ -6363,6 +6408,1986 @@
       </c>
       <c r="F166" s="5" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B167" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C167" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D167" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B168" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C168" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D168" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B169" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C169" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D169" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B170" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C170" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D170" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B171" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C171" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D171" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B172" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C172" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D172" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B173" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C173" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D173" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B174" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C174" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D174" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B175" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C175" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D175" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B176" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C176" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D176" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B177" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C177" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D177" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B178" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C178" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D178" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B179" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C179" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D179" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B180" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C180" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D180" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B181" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C181" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D181" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C182" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D182" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B183" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C183" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D183" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B184" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C184" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D184" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B185" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C185" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D185" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B186" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C186" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D186" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B187" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C187" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D187" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B188" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C188" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D188" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B189" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C189" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D189" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B190" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C190" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D190" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B191" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C191" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D191" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B192" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C192" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D192" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B193" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C193" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B194" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C194" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B195" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C195" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D195" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B196" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C196" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D196" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B197" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C197" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D197" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B198" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C198" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D198" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B199" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C199" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D199" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B200" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C200" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D200" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B201" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C201" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D201" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B202" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C202" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D202" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B203" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C203" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D203" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B204" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C204" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D204" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B205" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C205" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D205" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C206" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D206" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B207" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C207" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D207" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B208" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C208" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D208" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B209" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C209" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D209" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B210" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C210" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D210" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B211" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C211" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D211" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B212" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C212" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D212" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B213" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C213" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D213" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B214" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C214" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D214" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B215" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C215" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D215" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B216" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C216" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D216" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B217" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C217" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D217" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B218" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C218" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D218" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B219" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C219" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D219" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B220" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C220" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D220" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B221" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C221" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D221" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B222" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C222" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D222" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B223" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C223" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D223" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B224" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C224" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D224" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B225" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C225" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D225" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B226" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C226" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D226" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B227" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C227" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D227" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B228" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C228" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D228" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B229" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C229" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D229" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B230" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C230" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D230" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B231" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C231" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D231" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B232" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C232" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D232" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B233" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C233" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D233" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B234" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C234" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D234" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B235" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C235" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D235" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B236" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C236" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D236" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B237" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C237" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D237" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B238" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C238" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D238" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B239" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C239" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D239" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B240" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C240" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D240" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B241" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C241" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D241" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B242" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C242" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D242" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="5">
+        <v>2009.0</v>
+      </c>
+      <c r="B243" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C243" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D243" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B244" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C244" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D244" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B245" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C245" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D245" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B246" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C246" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D246" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B247" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C247" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D247" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B248" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C248" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D248" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B249" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C249" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D249" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B250" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C250" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D250" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B251" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C251" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D251" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B252" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C252" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D252" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B253" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C253" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D253" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B254" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C254" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D254" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B255" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C255" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D255" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B256" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C256" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D256" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B257" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C257" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D257" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B258" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C258" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D258" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B259" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C259" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D259" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B260" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C260" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D260" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B261" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C261" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D261" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B262" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C262" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D262" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B263" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C263" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D263" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B264" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C264" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D264" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="5">
+        <v>2008.0</v>
+      </c>
+      <c r="B265" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C265" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D265" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6414,7 +8439,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>129</v>
@@ -6497,7 +8522,7 @@
         <v>263</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7">
@@ -6657,7 +8682,7 @@
         <v>294</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15">
@@ -6717,7 +8742,7 @@
         <v>293</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18">
@@ -6737,7 +8762,7 @@
         <v>294</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19">
@@ -6794,7 +8819,7 @@
         <v>3.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>19</v>
@@ -6957,7 +8982,7 @@
         <v>293</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30">
@@ -7017,7 +9042,7 @@
         <v>294</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33">
@@ -7077,7 +9102,7 @@
         <v>293</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36">
@@ -7117,7 +9142,7 @@
         <v>295</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +9182,7 @@
         <v>293</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40">
@@ -7214,7 +9239,7 @@
         <v>9.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>189</v>
@@ -7477,7 +9502,7 @@
         <v>295</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56">
@@ -7534,7 +9559,7 @@
         <v>8.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>179</v>
@@ -7714,7 +9739,7 @@
         <v>3.0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>61</v>
@@ -7894,7 +9919,7 @@
         <v>11.0</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>189</v>
@@ -7994,7 +10019,7 @@
         <v>4.0</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>61</v>
@@ -8094,7 +10119,7 @@
         <v>7.0</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>179</v>
@@ -8357,7 +10382,7 @@
         <v>294</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100">
@@ -8397,7 +10422,7 @@
         <v>293</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102">
@@ -8597,7 +10622,7 @@
         <v>294</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112">
@@ -8674,7 +10699,7 @@
         <v>3.0</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>19</v>
@@ -8694,7 +10719,7 @@
         <v>3.0</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>89</v>
@@ -8734,7 +10759,7 @@
         <v>5.0</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>61</v>
@@ -8794,7 +10819,7 @@
         <v>7.0</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>167</v>
@@ -8814,7 +10839,7 @@
         <v>8.0</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>179</v>
@@ -9054,7 +11079,7 @@
         <v>8.0</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>179</v>
@@ -9397,7 +11422,7 @@
         <v>309</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152">
@@ -9434,7 +11459,7 @@
         <v>8.0</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>179</v>
@@ -9514,7 +11539,7 @@
         <v>12.0</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>189</v>
@@ -9569,7 +11594,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>45</v>
@@ -9589,7 +11614,7 @@
         <v>2.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>31</v>
@@ -9652,7 +11677,7 @@
         <v>295</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7">
@@ -9692,7 +11717,7 @@
         <v>293</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9">
@@ -9732,7 +11757,7 @@
         <v>295</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11">
@@ -9752,7 +11777,7 @@
         <v>293</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12">
@@ -9772,7 +11797,7 @@
         <v>312</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13">
@@ -9852,7 +11877,7 @@
         <v>322</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17">
@@ -9892,7 +11917,7 @@
         <v>294</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19">
@@ -9912,7 +11937,7 @@
         <v>293</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20">
@@ -9952,7 +11977,7 @@
         <v>295</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22">
@@ -10032,7 +12057,7 @@
         <v>295</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26">
@@ -10092,7 +12117,7 @@
         <v>317</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29">
@@ -10109,7 +12134,7 @@
         <v>1.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>259</v>
@@ -10172,7 +12197,7 @@
         <v>317</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33">
@@ -10192,7 +12217,7 @@
         <v>296</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34">
@@ -10412,7 +12437,7 @@
         <v>294</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45">
@@ -10492,7 +12517,7 @@
         <v>293</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49">
@@ -10632,7 +12657,7 @@
         <v>293</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56">
@@ -10772,7 +12797,7 @@
         <v>295</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63">
@@ -10852,7 +12877,7 @@
         <v>294</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67">
@@ -10952,7 +12977,7 @@
         <v>304</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
@@ -10992,7 +13017,7 @@
         <v>294</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74">
@@ -11032,7 +13057,7 @@
         <v>294</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76">
@@ -11072,7 +13097,7 @@
         <v>294</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78">
@@ -11112,7 +13137,7 @@
         <v>294</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80">
@@ -11172,7 +13197,7 @@
         <v>304</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83">
@@ -11192,7 +13217,7 @@
         <v>293</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84">
@@ -11212,7 +13237,7 @@
         <v>294</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="85">
@@ -11232,7 +13257,7 @@
         <v>293</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86">
@@ -11252,7 +13277,7 @@
         <v>294</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87">
@@ -11312,7 +13337,7 @@
         <v>294</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90">
@@ -11369,10 +13394,10 @@
         <v>1.0</v>
       </c>
       <c r="E92" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="93">
@@ -11532,7 +13557,7 @@
         <v>293</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101">
@@ -11552,7 +13577,7 @@
         <v>294</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102">
@@ -11572,7 +13597,7 @@
         <v>293</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103">
@@ -11632,7 +13657,7 @@
         <v>296</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106">
@@ -11652,7 +13677,7 @@
         <v>297</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107">
@@ -11672,7 +13697,7 @@
         <v>293</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108">
@@ -11692,7 +13717,7 @@
         <v>294</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109">
@@ -11712,7 +13737,7 @@
         <v>293</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110">
@@ -11732,7 +13757,7 @@
         <v>294</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111">
@@ -11792,7 +13817,7 @@
         <v>302</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114">
@@ -11829,7 +13854,7 @@
         <v>1.0</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>251</v>
@@ -11852,7 +13877,7 @@
         <v>293</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117">
@@ -11872,7 +13897,7 @@
         <v>294</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118">
@@ -11932,7 +13957,7 @@
         <v>294</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121">
@@ -12087,7 +14112,7 @@
         <v>296</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6">
@@ -12147,7 +14172,7 @@
         <v>295</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9">
@@ -12187,7 +14212,7 @@
         <v>296</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11">
@@ -12227,7 +14252,7 @@
         <v>293</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13">
@@ -12307,7 +14332,7 @@
         <v>295</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17">
@@ -12387,7 +14412,7 @@
         <v>297</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21">
@@ -12427,7 +14452,7 @@
         <v>294</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23">
@@ -12484,7 +14509,7 @@
         <v>2.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>71</v>
@@ -12527,7 +14552,7 @@
         <v>296</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28">
@@ -12547,7 +14572,7 @@
         <v>293</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29">
@@ -12587,7 +14612,7 @@
         <v>295</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31">
@@ -12627,7 +14652,7 @@
         <v>295</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33">
@@ -12687,7 +14712,7 @@
         <v>294</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36">
@@ -12767,7 +14792,7 @@
         <v>295</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40">
@@ -12787,7 +14812,7 @@
         <v>296</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41">
@@ -12824,7 +14849,7 @@
         <v>3.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>175</v>
@@ -12947,7 +14972,7 @@
         <v>294</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49">
@@ -12984,7 +15009,7 @@
         <v>1.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>139</v>
@@ -13087,7 +15112,7 @@
         <v>294</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56">
@@ -13207,7 +15232,7 @@
         <v>294</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62">
@@ -13327,7 +15352,7 @@
         <v>294</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68">
@@ -13707,7 +15732,7 @@
         <v>293</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87">
@@ -13847,7 +15872,7 @@
         <v>293</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94">
@@ -13867,7 +15892,7 @@
         <v>294</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95">
@@ -13907,7 +15932,7 @@
         <v>293</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97">
@@ -13967,7 +15992,7 @@
         <v>296</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100">
@@ -14007,7 +16032,7 @@
         <v>312</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102">
@@ -14124,7 +16149,7 @@
         <v>6.0</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>97</v>
@@ -14147,7 +16172,7 @@
         <v>293</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109">
@@ -14327,7 +16352,7 @@
         <v>294</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118">
@@ -14407,7 +16432,7 @@
         <v>293</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122">
@@ -14467,7 +16492,7 @@
         <v>296</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125">
@@ -14484,7 +16509,7 @@
         <v>2.0</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>125</v>
@@ -14507,7 +16532,7 @@
         <v>293</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127">
@@ -14527,7 +16552,7 @@
         <v>294</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128">
@@ -14567,7 +16592,7 @@
         <v>294</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130">
@@ -14647,7 +16672,7 @@
         <v>293</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134">
@@ -14747,7 +16772,7 @@
         <v>296</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139">
@@ -14887,7 +16912,7 @@
         <v>293</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146">
@@ -14927,7 +16952,7 @@
         <v>295</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148">
@@ -14947,7 +16972,7 @@
         <v>302</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149">
@@ -15007,7 +17032,7 @@
         <v>294</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152">
@@ -15064,7 +17089,7 @@
         <v>5.0</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>205</v>
@@ -15125,7 +17150,7 @@
         <v>302</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3">
@@ -15145,7 +17170,7 @@
         <v>295</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
@@ -15162,7 +17187,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>95</v>
@@ -15182,7 +17207,7 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>203</v>
@@ -15265,7 +17290,7 @@
         <v>297</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
@@ -15325,7 +17350,7 @@
         <v>295</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13">
@@ -15382,7 +17407,7 @@
         <v>6.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>235</v>
@@ -15425,7 +17450,7 @@
         <v>295</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18">
@@ -15465,7 +17490,7 @@
         <v>294</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20">
@@ -15545,7 +17570,7 @@
         <v>294</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24">
@@ -15605,7 +17630,7 @@
         <v>302</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27">
@@ -15625,7 +17650,7 @@
         <v>295</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28">
@@ -15785,7 +17810,7 @@
         <v>295</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36">
@@ -15805,7 +17830,7 @@
         <v>293</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37">
@@ -15845,7 +17870,7 @@
         <v>293</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39">
@@ -15885,7 +17910,7 @@
         <v>293</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41">
@@ -15905,7 +17930,7 @@
         <v>294</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42">
@@ -16065,7 +18090,7 @@
         <v>294</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50">
@@ -16105,7 +18130,7 @@
         <v>294</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52">
@@ -16125,7 +18150,7 @@
         <v>293</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53">
@@ -16305,7 +18330,7 @@
         <v>302</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62">
@@ -16345,7 +18370,7 @@
         <v>294</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64">
@@ -16425,7 +18450,7 @@
         <v>293</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68">
@@ -16445,7 +18470,7 @@
         <v>294</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69">
@@ -16485,7 +18510,7 @@
         <v>295</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71">
@@ -16585,7 +18610,7 @@
         <v>294</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76">
@@ -16625,7 +18650,7 @@
         <v>293</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78">
@@ -16685,7 +18710,7 @@
         <v>293</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81">
@@ -16705,7 +18730,7 @@
         <v>294</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82">
@@ -16745,7 +18770,7 @@
         <v>293</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84">
@@ -16765,7 +18790,7 @@
         <v>294</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85">
@@ -16862,7 +18887,7 @@
         <v>1.0</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>109</v>
@@ -16905,7 +18930,7 @@
         <v>322</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92">
@@ -16945,7 +18970,7 @@
         <v>294</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94">
@@ -17045,7 +19070,7 @@
         <v>293</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99">
@@ -17262,7 +19287,7 @@
         <v>1.0</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>109</v>
@@ -17285,7 +19310,7 @@
         <v>317</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111">
@@ -17325,7 +19350,7 @@
         <v>294</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113">
@@ -18020,7 +20045,7 @@
         <v>295</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16">
@@ -18060,7 +20085,7 @@
         <v>294</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18">
@@ -18780,7 +20805,7 @@
         <v>293</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54">
@@ -19860,7 +21885,7 @@
         <v>294</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="108">
@@ -20100,7 +22125,7 @@
         <v>293</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120">
@@ -20358,7 +22383,7 @@
         <v>293</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11">
@@ -20398,7 +22423,7 @@
         <v>295</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
@@ -20418,7 +22443,7 @@
         <v>293</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14">
@@ -20538,7 +22563,7 @@
         <v>294</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20">
@@ -20578,7 +22603,7 @@
         <v>294</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22">
@@ -20638,7 +22663,7 @@
         <v>294</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25">
@@ -20695,7 +22720,7 @@
         <v>5.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>79</v>
@@ -20738,7 +22763,7 @@
         <v>294</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30">
@@ -20778,7 +22803,7 @@
         <v>293</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32">
@@ -20798,7 +22823,7 @@
         <v>294</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33">
@@ -20838,7 +22863,7 @@
         <v>294</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35">
@@ -20858,7 +22883,7 @@
         <v>293</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36">
@@ -20918,7 +22943,7 @@
         <v>294</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39">
@@ -21018,7 +23043,7 @@
         <v>293</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44">
@@ -21078,7 +23103,7 @@
         <v>317</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47">
@@ -21238,7 +23263,7 @@
         <v>295</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55">
@@ -21375,10 +23400,10 @@
         <v>8.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62">
@@ -21818,7 +23843,7 @@
         <v>295</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84">
@@ -21835,7 +23860,7 @@
         <v>2.0</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>11</v>
@@ -21938,7 +23963,7 @@
         <v>294</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90">
@@ -22058,7 +24083,7 @@
         <v>294</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96">
@@ -22198,7 +24223,7 @@
         <v>293</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103">
@@ -22378,7 +24403,7 @@
         <v>219</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="112">
@@ -22418,7 +24443,7 @@
         <v>294</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114">
@@ -22558,7 +24583,7 @@
         <v>294</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="121">
@@ -22578,7 +24603,7 @@
         <v>302</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122">
@@ -22618,7 +24643,7 @@
         <v>294</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124">
@@ -22718,7 +24743,7 @@
         <v>295</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="129">
@@ -22758,7 +24783,7 @@
         <v>294</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131">
@@ -22898,7 +24923,7 @@
         <v>294</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138">
@@ -22958,7 +24983,7 @@
         <v>294</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="141">
@@ -23035,7 +25060,7 @@
         <v>6.0</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>119</v>
@@ -23098,7 +25123,7 @@
         <v>293</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148">
@@ -23198,7 +25223,7 @@
         <v>294</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153">
@@ -23218,7 +25243,7 @@
         <v>302</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="154">
@@ -23418,7 +25443,7 @@
         <v>296</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="164">
@@ -23458,7 +25483,7 @@
         <v>295</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166">
@@ -23758,7 +25783,7 @@
         <v>294</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="181">
@@ -23821,22 +25846,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
